--- a/public/B.xlsx
+++ b/public/B.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3409EFD-293F-44F5-BC36-B3BE58A3AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="712">
   <si>
     <t>User Name</t>
   </si>
@@ -1432,7 +1441,7 @@
     <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
   </si>
   <si>
-    <t>Newton DÃ_x0083_Â¢Ã¢Â_x0082_Â¬Ã¢Â_x0084_Â¢Souza</t>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
   </si>
   <si>
     <t>newtondsouza1402@gmail.com</t>
@@ -2144,23 +2153,31 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/2a11032d-f07c-47ed-b6b5-9543f1b0d851</t>
+  </si>
+  <si>
+    <t>eligibleforgoodies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2168,48 +2185,351 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,8 +2560,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="L1" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2261,16 +2584,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2290,13 +2613,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2316,13 +2639,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2342,16 +2665,16 @@
         <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2371,16 +2694,16 @@
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2400,16 +2723,16 @@
         <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,19 +2752,19 @@
         <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2461,16 +2784,16 @@
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2490,16 +2813,16 @@
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2519,16 +2842,16 @@
         <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -2548,13 +2871,13 @@
         <v>15</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -2574,19 +2897,19 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2606,19 +2929,19 @@
         <v>15</v>
       </c>
       <c r="G14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2638,16 +2961,16 @@
         <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2667,16 +2990,16 @@
         <v>15</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -2696,16 +3019,16 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -2725,13 +3048,13 @@
         <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,19 +3074,19 @@
         <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2783,13 +3106,13 @@
         <v>15</v>
       </c>
       <c r="G20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2809,13 +3132,13 @@
         <v>15</v>
       </c>
       <c r="G21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -2835,16 +3158,16 @@
         <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
@@ -2864,13 +3187,13 @@
         <v>15</v>
       </c>
       <c r="G23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -2890,13 +3213,13 @@
         <v>15</v>
       </c>
       <c r="G24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
@@ -2916,13 +3239,13 @@
         <v>15</v>
       </c>
       <c r="G25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -2942,16 +3265,16 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -2971,19 +3294,19 @@
         <v>15</v>
       </c>
       <c r="G27" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -3003,16 +3326,16 @@
         <v>15</v>
       </c>
       <c r="G28" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -3032,16 +3355,16 @@
         <v>15</v>
       </c>
       <c r="G29" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
@@ -3061,16 +3384,16 @@
         <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
@@ -3090,16 +3413,16 @@
         <v>15</v>
       </c>
       <c r="G31" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3119,19 +3442,19 @@
         <v>15</v>
       </c>
       <c r="G32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>121</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
@@ -3151,16 +3474,16 @@
         <v>15</v>
       </c>
       <c r="G33" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
@@ -3180,16 +3503,16 @@
         <v>15</v>
       </c>
       <c r="G34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -3209,16 +3532,16 @@
         <v>15</v>
       </c>
       <c r="G35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>132</v>
       </c>
@@ -3238,13 +3561,13 @@
         <v>15</v>
       </c>
       <c r="G36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
@@ -3264,16 +3587,16 @@
         <v>15</v>
       </c>
       <c r="G37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>138</v>
       </c>
@@ -3293,13 +3616,13 @@
         <v>15</v>
       </c>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
@@ -3319,13 +3642,13 @@
         <v>15</v>
       </c>
       <c r="G39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>144</v>
       </c>
@@ -3345,13 +3668,13 @@
         <v>15</v>
       </c>
       <c r="G40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -3371,13 +3694,13 @@
         <v>15</v>
       </c>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>150</v>
       </c>
@@ -3397,19 +3720,19 @@
         <v>15</v>
       </c>
       <c r="G42" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>153</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
@@ -3429,13 +3752,13 @@
         <v>15</v>
       </c>
       <c r="G43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>157</v>
       </c>
@@ -3455,16 +3778,16 @@
         <v>15</v>
       </c>
       <c r="G44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -3484,13 +3807,13 @@
         <v>15</v>
       </c>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>163</v>
       </c>
@@ -3510,19 +3833,22 @@
         <v>14</v>
       </c>
       <c r="G46" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>166</v>
       </c>
       <c r="I46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
@@ -3542,13 +3868,13 @@
         <v>15</v>
       </c>
       <c r="G47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
@@ -3568,16 +3894,16 @@
         <v>15</v>
       </c>
       <c r="G48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>173</v>
       </c>
@@ -3597,16 +3923,16 @@
         <v>15</v>
       </c>
       <c r="G49" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I49" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>176</v>
       </c>
@@ -3626,19 +3952,19 @@
         <v>15</v>
       </c>
       <c r="G50" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>179</v>
       </c>
@@ -3658,13 +3984,13 @@
         <v>15</v>
       </c>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>182</v>
       </c>
@@ -3684,16 +4010,16 @@
         <v>15</v>
       </c>
       <c r="G52" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="I52" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>186</v>
       </c>
@@ -3713,16 +4039,16 @@
         <v>15</v>
       </c>
       <c r="G53" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I53" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>189</v>
       </c>
@@ -3742,16 +4068,16 @@
         <v>15</v>
       </c>
       <c r="G54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I54" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>192</v>
       </c>
@@ -3771,16 +4097,16 @@
         <v>15</v>
       </c>
       <c r="G55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I55" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
@@ -3800,13 +4126,13 @@
         <v>15</v>
       </c>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>198</v>
       </c>
@@ -3826,16 +4152,16 @@
         <v>15</v>
       </c>
       <c r="G57" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I57" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>201</v>
       </c>
@@ -3855,19 +4181,19 @@
         <v>15</v>
       </c>
       <c r="G58" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>204</v>
       </c>
       <c r="I58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
@@ -3887,13 +4213,13 @@
         <v>15</v>
       </c>
       <c r="G59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>208</v>
       </c>
@@ -3913,13 +4239,13 @@
         <v>15</v>
       </c>
       <c r="G60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>211</v>
       </c>
@@ -3939,16 +4265,16 @@
         <v>15</v>
       </c>
       <c r="G61" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I61" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>214</v>
       </c>
@@ -3968,13 +4294,13 @@
         <v>15</v>
       </c>
       <c r="G62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>217</v>
       </c>
@@ -3994,13 +4320,13 @@
         <v>15</v>
       </c>
       <c r="G63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>220</v>
       </c>
@@ -4020,13 +4346,13 @@
         <v>15</v>
       </c>
       <c r="G64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>223</v>
       </c>
@@ -4046,13 +4372,13 @@
         <v>15</v>
       </c>
       <c r="G65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>226</v>
       </c>
@@ -4072,13 +4398,13 @@
         <v>15</v>
       </c>
       <c r="G66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>229</v>
       </c>
@@ -4098,13 +4424,13 @@
         <v>15</v>
       </c>
       <c r="G67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>232</v>
       </c>
@@ -4124,13 +4450,13 @@
         <v>15</v>
       </c>
       <c r="G68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>235</v>
       </c>
@@ -4150,13 +4476,13 @@
         <v>15</v>
       </c>
       <c r="G69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>238</v>
       </c>
@@ -4176,16 +4502,16 @@
         <v>15</v>
       </c>
       <c r="G70" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I70" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>241</v>
       </c>
@@ -4205,13 +4531,13 @@
         <v>15</v>
       </c>
       <c r="G71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>244</v>
       </c>
@@ -4231,13 +4557,13 @@
         <v>15</v>
       </c>
       <c r="G72" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>247</v>
       </c>
@@ -4257,16 +4583,16 @@
         <v>15</v>
       </c>
       <c r="G73" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I73" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>250</v>
       </c>
@@ -4286,16 +4612,16 @@
         <v>15</v>
       </c>
       <c r="G74" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>253</v>
       </c>
       <c r="I74" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>254</v>
       </c>
@@ -4315,16 +4641,16 @@
         <v>15</v>
       </c>
       <c r="G75" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I75" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>258</v>
       </c>
@@ -4344,13 +4670,13 @@
         <v>15</v>
       </c>
       <c r="G76" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>261</v>
       </c>
@@ -4370,16 +4696,16 @@
         <v>15</v>
       </c>
       <c r="G77" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>264</v>
       </c>
@@ -4399,13 +4725,13 @@
         <v>15</v>
       </c>
       <c r="G78" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>267</v>
       </c>
@@ -4425,13 +4751,13 @@
         <v>15</v>
       </c>
       <c r="G79" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>270</v>
       </c>
@@ -4451,13 +4777,13 @@
         <v>15</v>
       </c>
       <c r="G80" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>273</v>
       </c>
@@ -4477,13 +4803,13 @@
         <v>15</v>
       </c>
       <c r="G81" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I81" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>276</v>
       </c>
@@ -4503,13 +4829,13 @@
         <v>15</v>
       </c>
       <c r="G82" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>279</v>
       </c>
@@ -4529,16 +4855,16 @@
         <v>15</v>
       </c>
       <c r="G83" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>282</v>
       </c>
@@ -4558,16 +4884,16 @@
         <v>15</v>
       </c>
       <c r="G84" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I84" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>285</v>
       </c>
@@ -4587,13 +4913,13 @@
         <v>15</v>
       </c>
       <c r="G85" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>288</v>
       </c>
@@ -4613,13 +4939,13 @@
         <v>15</v>
       </c>
       <c r="G86" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>291</v>
       </c>
@@ -4639,13 +4965,13 @@
         <v>15</v>
       </c>
       <c r="G87" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>294</v>
       </c>
@@ -4665,13 +4991,13 @@
         <v>15</v>
       </c>
       <c r="G88" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I88" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>297</v>
       </c>
@@ -4691,19 +5017,19 @@
         <v>15</v>
       </c>
       <c r="G89" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>300</v>
       </c>
       <c r="I89" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>301</v>
       </c>
@@ -4723,13 +5049,13 @@
         <v>15</v>
       </c>
       <c r="G90" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I90" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>304</v>
       </c>
@@ -4749,16 +5075,16 @@
         <v>15</v>
       </c>
       <c r="G91" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I91" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>307</v>
       </c>
@@ -4778,16 +5104,16 @@
         <v>15</v>
       </c>
       <c r="G92" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I92" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>310</v>
       </c>
@@ -4807,13 +5133,13 @@
         <v>15</v>
       </c>
       <c r="G93" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I93" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>313</v>
       </c>
@@ -4833,13 +5159,13 @@
         <v>15</v>
       </c>
       <c r="G94" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>316</v>
       </c>
@@ -4859,13 +5185,13 @@
         <v>15</v>
       </c>
       <c r="G95" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I95" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>319</v>
       </c>
@@ -4885,13 +5211,13 @@
         <v>15</v>
       </c>
       <c r="G96" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I96" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>322</v>
       </c>
@@ -4911,13 +5237,13 @@
         <v>15</v>
       </c>
       <c r="G97" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I97" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>325</v>
       </c>
@@ -4937,16 +5263,16 @@
         <v>15</v>
       </c>
       <c r="G98" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I98" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>328</v>
       </c>
@@ -4966,16 +5292,16 @@
         <v>15</v>
       </c>
       <c r="G99" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>331</v>
       </c>
       <c r="I99" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>332</v>
       </c>
@@ -4995,16 +5321,16 @@
         <v>15</v>
       </c>
       <c r="G100" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I100" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>335</v>
       </c>
@@ -5024,13 +5350,13 @@
         <v>15</v>
       </c>
       <c r="G101" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>338</v>
       </c>
@@ -5050,13 +5376,13 @@
         <v>15</v>
       </c>
       <c r="G102" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>341</v>
       </c>
@@ -5076,13 +5402,13 @@
         <v>15</v>
       </c>
       <c r="G103" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>344</v>
       </c>
@@ -5102,16 +5428,16 @@
         <v>15</v>
       </c>
       <c r="G104" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>253</v>
       </c>
       <c r="I104" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>347</v>
       </c>
@@ -5131,13 +5457,13 @@
         <v>15</v>
       </c>
       <c r="G105" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I105" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>350</v>
       </c>
@@ -5157,13 +5483,13 @@
         <v>15</v>
       </c>
       <c r="G106" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I106" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>353</v>
       </c>
@@ -5183,13 +5509,13 @@
         <v>15</v>
       </c>
       <c r="G107" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>356</v>
       </c>
@@ -5209,13 +5535,13 @@
         <v>15</v>
       </c>
       <c r="G108" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>359</v>
       </c>
@@ -5235,13 +5561,13 @@
         <v>15</v>
       </c>
       <c r="G109" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I109" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>362</v>
       </c>
@@ -5261,16 +5587,16 @@
         <v>15</v>
       </c>
       <c r="G110" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>253</v>
       </c>
       <c r="I110" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>365</v>
       </c>
@@ -5290,16 +5616,16 @@
         <v>15</v>
       </c>
       <c r="G111" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I111" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>368</v>
       </c>
@@ -5319,13 +5645,13 @@
         <v>15</v>
       </c>
       <c r="G112" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I112" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>371</v>
       </c>
@@ -5345,13 +5671,13 @@
         <v>15</v>
       </c>
       <c r="G113" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I113" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>374</v>
       </c>
@@ -5371,13 +5697,13 @@
         <v>15</v>
       </c>
       <c r="G114" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I114" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>377</v>
       </c>
@@ -5397,16 +5723,16 @@
         <v>15</v>
       </c>
       <c r="G115" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>380</v>
       </c>
       <c r="I115" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>381</v>
       </c>
@@ -5426,16 +5752,16 @@
         <v>15</v>
       </c>
       <c r="G116" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I116" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>384</v>
       </c>
@@ -5455,16 +5781,16 @@
         <v>15</v>
       </c>
       <c r="G117" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I117" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>387</v>
       </c>
@@ -5484,13 +5810,13 @@
         <v>15</v>
       </c>
       <c r="G118" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I118" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>390</v>
       </c>
@@ -5510,16 +5836,16 @@
         <v>15</v>
       </c>
       <c r="G119" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I119" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>393</v>
       </c>
@@ -5539,13 +5865,13 @@
         <v>15</v>
       </c>
       <c r="G120" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I120" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>396</v>
       </c>
@@ -5565,16 +5891,16 @@
         <v>15</v>
       </c>
       <c r="G121" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>399</v>
       </c>
       <c r="I121" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>400</v>
       </c>
@@ -5594,16 +5920,16 @@
         <v>15</v>
       </c>
       <c r="G122" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I122" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>403</v>
       </c>
@@ -5623,13 +5949,13 @@
         <v>15</v>
       </c>
       <c r="G123" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I123" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>406</v>
       </c>
@@ -5649,13 +5975,13 @@
         <v>15</v>
       </c>
       <c r="G124" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I124" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>409</v>
       </c>
@@ -5675,13 +6001,13 @@
         <v>15</v>
       </c>
       <c r="G125" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I125" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>412</v>
       </c>
@@ -5701,13 +6027,13 @@
         <v>15</v>
       </c>
       <c r="G126" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I126" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>415</v>
       </c>
@@ -5727,13 +6053,13 @@
         <v>15</v>
       </c>
       <c r="G127" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I127" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>418</v>
       </c>
@@ -5753,13 +6079,13 @@
         <v>15</v>
       </c>
       <c r="G128" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I128" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>421</v>
       </c>
@@ -5779,13 +6105,13 @@
         <v>15</v>
       </c>
       <c r="G129" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I129" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>424</v>
       </c>
@@ -5805,13 +6131,13 @@
         <v>15</v>
       </c>
       <c r="G130" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I130" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>427</v>
       </c>
@@ -5831,13 +6157,13 @@
         <v>15</v>
       </c>
       <c r="G131" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I131" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>430</v>
       </c>
@@ -5857,13 +6183,13 @@
         <v>15</v>
       </c>
       <c r="G132" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I132" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>433</v>
       </c>
@@ -5883,13 +6209,13 @@
         <v>15</v>
       </c>
       <c r="G133" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I133" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>436</v>
       </c>
@@ -5909,13 +6235,13 @@
         <v>15</v>
       </c>
       <c r="G134" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I134" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>439</v>
       </c>
@@ -5935,16 +6261,16 @@
         <v>15</v>
       </c>
       <c r="G135" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I135" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>442</v>
       </c>
@@ -5964,16 +6290,16 @@
         <v>15</v>
       </c>
       <c r="G136" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I136" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>445</v>
       </c>
@@ -5993,13 +6319,13 @@
         <v>15</v>
       </c>
       <c r="G137" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I137" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>448</v>
       </c>
@@ -6019,16 +6345,16 @@
         <v>15</v>
       </c>
       <c r="G138" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>451</v>
       </c>
       <c r="I138" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>452</v>
       </c>
@@ -6048,13 +6374,13 @@
         <v>15</v>
       </c>
       <c r="G139" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I139" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>455</v>
       </c>
@@ -6074,13 +6400,13 @@
         <v>15</v>
       </c>
       <c r="G140" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I140" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>458</v>
       </c>
@@ -6100,16 +6426,16 @@
         <v>15</v>
       </c>
       <c r="G141" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>461</v>
       </c>
@@ -6129,13 +6455,13 @@
         <v>15</v>
       </c>
       <c r="G142" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I142" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>464</v>
       </c>
@@ -6155,13 +6481,13 @@
         <v>15</v>
       </c>
       <c r="G143" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I143" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>467</v>
       </c>
@@ -6181,13 +6507,13 @@
         <v>15</v>
       </c>
       <c r="G144" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I144" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>470</v>
       </c>
@@ -6207,19 +6533,19 @@
         <v>15</v>
       </c>
       <c r="G145" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I145" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>473</v>
       </c>
@@ -6239,13 +6565,13 @@
         <v>15</v>
       </c>
       <c r="G146" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I146" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>476</v>
       </c>
@@ -6265,16 +6591,16 @@
         <v>15</v>
       </c>
       <c r="G147" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I147" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>479</v>
       </c>
@@ -6294,13 +6620,13 @@
         <v>15</v>
       </c>
       <c r="G148" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I148" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>482</v>
       </c>
@@ -6320,13 +6646,13 @@
         <v>15</v>
       </c>
       <c r="G149" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I149" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>485</v>
       </c>
@@ -6346,13 +6672,13 @@
         <v>15</v>
       </c>
       <c r="G150" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I150" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>488</v>
       </c>
@@ -6372,13 +6698,13 @@
         <v>15</v>
       </c>
       <c r="G151" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I151" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>491</v>
       </c>
@@ -6398,13 +6724,13 @@
         <v>15</v>
       </c>
       <c r="G152" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>494</v>
       </c>
@@ -6424,13 +6750,13 @@
         <v>15</v>
       </c>
       <c r="G153" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I153" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>497</v>
       </c>
@@ -6450,13 +6776,13 @@
         <v>15</v>
       </c>
       <c r="G154" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I154" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>500</v>
       </c>
@@ -6476,16 +6802,16 @@
         <v>15</v>
       </c>
       <c r="G155" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I155" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>503</v>
       </c>
@@ -6505,13 +6831,13 @@
         <v>15</v>
       </c>
       <c r="G156" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I156" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>506</v>
       </c>
@@ -6531,13 +6857,13 @@
         <v>15</v>
       </c>
       <c r="G157" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I157" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>509</v>
       </c>
@@ -6557,13 +6883,13 @@
         <v>15</v>
       </c>
       <c r="G158" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I158" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>512</v>
       </c>
@@ -6583,13 +6909,13 @@
         <v>15</v>
       </c>
       <c r="G159" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I159" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>515</v>
       </c>
@@ -6609,13 +6935,13 @@
         <v>15</v>
       </c>
       <c r="G160" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I160" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>518</v>
       </c>
@@ -6635,13 +6961,13 @@
         <v>15</v>
       </c>
       <c r="G161" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I161" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>521</v>
       </c>
@@ -6661,16 +6987,16 @@
         <v>15</v>
       </c>
       <c r="G162" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I162" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>524</v>
       </c>
@@ -6690,16 +7016,16 @@
         <v>15</v>
       </c>
       <c r="G163" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>257</v>
       </c>
       <c r="I163" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>527</v>
       </c>
@@ -6719,13 +7045,13 @@
         <v>15</v>
       </c>
       <c r="G164" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I164" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>530</v>
       </c>
@@ -6745,16 +7071,16 @@
         <v>15</v>
       </c>
       <c r="G165" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I165" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>533</v>
       </c>
@@ -6774,13 +7100,13 @@
         <v>15</v>
       </c>
       <c r="G166" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I166" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>536</v>
       </c>
@@ -6800,13 +7126,13 @@
         <v>15</v>
       </c>
       <c r="G167" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I167" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>539</v>
       </c>
@@ -6826,16 +7152,16 @@
         <v>15</v>
       </c>
       <c r="G168" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I168" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>542</v>
       </c>
@@ -6855,13 +7181,13 @@
         <v>15</v>
       </c>
       <c r="G169" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I169" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>545</v>
       </c>
@@ -6881,13 +7207,13 @@
         <v>15</v>
       </c>
       <c r="G170" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I170" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>548</v>
       </c>
@@ -6907,13 +7233,13 @@
         <v>15</v>
       </c>
       <c r="G171" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I171" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>551</v>
       </c>
@@ -6933,13 +7259,13 @@
         <v>15</v>
       </c>
       <c r="G172" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I172" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>53</v>
       </c>
@@ -6959,13 +7285,13 @@
         <v>15</v>
       </c>
       <c r="G173" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I173" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>556</v>
       </c>
@@ -6985,13 +7311,13 @@
         <v>15</v>
       </c>
       <c r="G174" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I174" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>559</v>
       </c>
@@ -7011,16 +7337,16 @@
         <v>15</v>
       </c>
       <c r="G175" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I175" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>562</v>
       </c>
@@ -7040,13 +7366,13 @@
         <v>15</v>
       </c>
       <c r="G176" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I176" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>565</v>
       </c>
@@ -7066,13 +7392,13 @@
         <v>15</v>
       </c>
       <c r="G177" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I177" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>568</v>
       </c>
@@ -7092,13 +7418,13 @@
         <v>15</v>
       </c>
       <c r="G178" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I178" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>571</v>
       </c>
@@ -7118,13 +7444,13 @@
         <v>15</v>
       </c>
       <c r="G179" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I179" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>574</v>
       </c>
@@ -7144,13 +7470,13 @@
         <v>15</v>
       </c>
       <c r="G180" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I180" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>577</v>
       </c>
@@ -7170,13 +7496,13 @@
         <v>15</v>
       </c>
       <c r="G181" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I181" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>580</v>
       </c>
@@ -7196,13 +7522,13 @@
         <v>15</v>
       </c>
       <c r="G182" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I182" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>583</v>
       </c>
@@ -7222,13 +7548,13 @@
         <v>15</v>
       </c>
       <c r="G183" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I183" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>586</v>
       </c>
@@ -7248,13 +7574,13 @@
         <v>15</v>
       </c>
       <c r="G184" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I184" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>589</v>
       </c>
@@ -7274,13 +7600,13 @@
         <v>15</v>
       </c>
       <c r="G185" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I185" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>592</v>
       </c>
@@ -7300,13 +7626,13 @@
         <v>15</v>
       </c>
       <c r="G186" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I186" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>595</v>
       </c>
@@ -7326,13 +7652,13 @@
         <v>15</v>
       </c>
       <c r="G187" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I187" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>598</v>
       </c>
@@ -7352,13 +7678,13 @@
         <v>15</v>
       </c>
       <c r="G188" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I188" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>601</v>
       </c>
@@ -7378,13 +7704,13 @@
         <v>15</v>
       </c>
       <c r="G189" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I189" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>604</v>
       </c>
@@ -7404,16 +7730,16 @@
         <v>15</v>
       </c>
       <c r="G190" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I190" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>607</v>
       </c>
@@ -7433,13 +7759,13 @@
         <v>15</v>
       </c>
       <c r="G191" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I191" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>610</v>
       </c>
@@ -7459,13 +7785,13 @@
         <v>15</v>
       </c>
       <c r="G192" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I192" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>61</v>
       </c>
@@ -7485,13 +7811,13 @@
         <v>15</v>
       </c>
       <c r="G193" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I193" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>615</v>
       </c>
@@ -7511,13 +7837,13 @@
         <v>15</v>
       </c>
       <c r="G194" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I194" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>618</v>
       </c>
@@ -7537,13 +7863,13 @@
         <v>15</v>
       </c>
       <c r="G195" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I195" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>621</v>
       </c>
@@ -7563,13 +7889,13 @@
         <v>15</v>
       </c>
       <c r="G196" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I196" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>624</v>
       </c>
@@ -7589,13 +7915,13 @@
         <v>15</v>
       </c>
       <c r="G197" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I197" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>627</v>
       </c>
@@ -7615,13 +7941,13 @@
         <v>15</v>
       </c>
       <c r="G198" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I198" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>630</v>
       </c>
@@ -7641,16 +7967,16 @@
         <v>15</v>
       </c>
       <c r="G199" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I199" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>633</v>
       </c>
@@ -7670,13 +7996,13 @@
         <v>15</v>
       </c>
       <c r="G200" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I200" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>636</v>
       </c>
@@ -7696,13 +8022,13 @@
         <v>15</v>
       </c>
       <c r="G201" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I201" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>639</v>
       </c>
@@ -7722,13 +8048,13 @@
         <v>15</v>
       </c>
       <c r="G202" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I202" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>642</v>
       </c>
@@ -7748,13 +8074,13 @@
         <v>15</v>
       </c>
       <c r="G203" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I203" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>645</v>
       </c>
@@ -7774,13 +8100,13 @@
         <v>15</v>
       </c>
       <c r="G204" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I204" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>648</v>
       </c>
@@ -7800,13 +8126,13 @@
         <v>15</v>
       </c>
       <c r="G205" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I205" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>651</v>
       </c>
@@ -7826,13 +8152,13 @@
         <v>15</v>
       </c>
       <c r="G206" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I206" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>654</v>
       </c>
@@ -7852,13 +8178,13 @@
         <v>15</v>
       </c>
       <c r="G207" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I207" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>657</v>
       </c>
@@ -7878,13 +8204,13 @@
         <v>15</v>
       </c>
       <c r="G208" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I208" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>660</v>
       </c>
@@ -7904,13 +8230,13 @@
         <v>15</v>
       </c>
       <c r="G209" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I209" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>663</v>
       </c>
@@ -7930,13 +8256,13 @@
         <v>15</v>
       </c>
       <c r="G210" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I210" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>666</v>
       </c>
@@ -7956,13 +8282,13 @@
         <v>15</v>
       </c>
       <c r="G211" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I211" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>669</v>
       </c>
@@ -7982,13 +8308,13 @@
         <v>15</v>
       </c>
       <c r="G212" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I212" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>672</v>
       </c>
@@ -8008,13 +8334,13 @@
         <v>15</v>
       </c>
       <c r="G213" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I213" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>675</v>
       </c>
@@ -8034,13 +8360,13 @@
         <v>15</v>
       </c>
       <c r="G214" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I214" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>678</v>
       </c>
@@ -8060,13 +8386,13 @@
         <v>15</v>
       </c>
       <c r="G215" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I215" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>681</v>
       </c>
@@ -8086,13 +8412,13 @@
         <v>15</v>
       </c>
       <c r="G216" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I216" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>684</v>
       </c>
@@ -8112,13 +8438,13 @@
         <v>15</v>
       </c>
       <c r="G217" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I217" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>687</v>
       </c>
@@ -8138,13 +8464,13 @@
         <v>15</v>
       </c>
       <c r="G218" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I218" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>690</v>
       </c>
@@ -8164,13 +8490,13 @@
         <v>15</v>
       </c>
       <c r="G219" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I219" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>693</v>
       </c>
@@ -8190,13 +8516,13 @@
         <v>15</v>
       </c>
       <c r="G220" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I220" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>696</v>
       </c>
@@ -8216,13 +8542,13 @@
         <v>15</v>
       </c>
       <c r="G221" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I221" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>699</v>
       </c>
@@ -8242,13 +8568,13 @@
         <v>15</v>
       </c>
       <c r="G222" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I222" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>702</v>
       </c>
@@ -8268,13 +8594,13 @@
         <v>15</v>
       </c>
       <c r="G223" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I223" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>705</v>
       </c>
@@ -8294,13 +8620,13 @@
         <v>15</v>
       </c>
       <c r="G224" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I224" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>708</v>
       </c>
@@ -8320,239 +8646,239 @@
         <v>15</v>
       </c>
       <c r="G225" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I225" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
-    <hyperlink r:id="rId11" ref="C12"/>
-    <hyperlink r:id="rId12" ref="C13"/>
-    <hyperlink r:id="rId13" ref="C14"/>
-    <hyperlink r:id="rId14" ref="C15"/>
-    <hyperlink r:id="rId15" ref="C16"/>
-    <hyperlink r:id="rId16" ref="C17"/>
-    <hyperlink r:id="rId17" ref="C18"/>
-    <hyperlink r:id="rId18" ref="C19"/>
-    <hyperlink r:id="rId19" ref="C20"/>
-    <hyperlink r:id="rId20" ref="C21"/>
-    <hyperlink r:id="rId21" ref="C22"/>
-    <hyperlink r:id="rId22" ref="C23"/>
-    <hyperlink r:id="rId23" ref="C24"/>
-    <hyperlink r:id="rId24" ref="C25"/>
-    <hyperlink r:id="rId25" ref="C26"/>
-    <hyperlink r:id="rId26" ref="C27"/>
-    <hyperlink r:id="rId27" ref="C28"/>
-    <hyperlink r:id="rId28" ref="C29"/>
-    <hyperlink r:id="rId29" ref="C30"/>
-    <hyperlink r:id="rId30" ref="C31"/>
-    <hyperlink r:id="rId31" ref="C32"/>
-    <hyperlink r:id="rId32" ref="C33"/>
-    <hyperlink r:id="rId33" ref="C34"/>
-    <hyperlink r:id="rId34" ref="C35"/>
-    <hyperlink r:id="rId35" ref="C36"/>
-    <hyperlink r:id="rId36" ref="C37"/>
-    <hyperlink r:id="rId37" ref="C38"/>
-    <hyperlink r:id="rId38" ref="C39"/>
-    <hyperlink r:id="rId39" ref="C40"/>
-    <hyperlink r:id="rId40" ref="C41"/>
-    <hyperlink r:id="rId41" ref="C42"/>
-    <hyperlink r:id="rId42" ref="C43"/>
-    <hyperlink r:id="rId43" ref="C44"/>
-    <hyperlink r:id="rId44" ref="C45"/>
-    <hyperlink r:id="rId45" ref="C46"/>
-    <hyperlink r:id="rId46" ref="C47"/>
-    <hyperlink r:id="rId47" ref="C48"/>
-    <hyperlink r:id="rId48" ref="C49"/>
-    <hyperlink r:id="rId49" ref="C50"/>
-    <hyperlink r:id="rId50" ref="C51"/>
-    <hyperlink r:id="rId51" ref="C52"/>
-    <hyperlink r:id="rId52" ref="C53"/>
-    <hyperlink r:id="rId53" ref="C54"/>
-    <hyperlink r:id="rId54" ref="C55"/>
-    <hyperlink r:id="rId55" ref="C56"/>
-    <hyperlink r:id="rId56" ref="C57"/>
-    <hyperlink r:id="rId57" ref="C58"/>
-    <hyperlink r:id="rId58" ref="C59"/>
-    <hyperlink r:id="rId59" ref="C60"/>
-    <hyperlink r:id="rId60" ref="C61"/>
-    <hyperlink r:id="rId61" ref="C62"/>
-    <hyperlink r:id="rId62" ref="C63"/>
-    <hyperlink r:id="rId63" ref="C64"/>
-    <hyperlink r:id="rId64" ref="C65"/>
-    <hyperlink r:id="rId65" ref="C66"/>
-    <hyperlink r:id="rId66" ref="C67"/>
-    <hyperlink r:id="rId67" ref="C68"/>
-    <hyperlink r:id="rId68" ref="C69"/>
-    <hyperlink r:id="rId69" ref="C70"/>
-    <hyperlink r:id="rId70" ref="C71"/>
-    <hyperlink r:id="rId71" ref="C72"/>
-    <hyperlink r:id="rId72" ref="C73"/>
-    <hyperlink r:id="rId73" ref="C74"/>
-    <hyperlink r:id="rId74" ref="C75"/>
-    <hyperlink r:id="rId75" ref="C76"/>
-    <hyperlink r:id="rId76" ref="C77"/>
-    <hyperlink r:id="rId77" ref="C78"/>
-    <hyperlink r:id="rId78" ref="C79"/>
-    <hyperlink r:id="rId79" ref="C80"/>
-    <hyperlink r:id="rId80" ref="C81"/>
-    <hyperlink r:id="rId81" ref="C82"/>
-    <hyperlink r:id="rId82" ref="C83"/>
-    <hyperlink r:id="rId83" ref="C84"/>
-    <hyperlink r:id="rId84" ref="C85"/>
-    <hyperlink r:id="rId85" ref="C86"/>
-    <hyperlink r:id="rId86" ref="C87"/>
-    <hyperlink r:id="rId87" ref="C88"/>
-    <hyperlink r:id="rId88" ref="C89"/>
-    <hyperlink r:id="rId89" ref="C90"/>
-    <hyperlink r:id="rId90" ref="C91"/>
-    <hyperlink r:id="rId91" ref="C92"/>
-    <hyperlink r:id="rId92" ref="C93"/>
-    <hyperlink r:id="rId93" ref="C94"/>
-    <hyperlink r:id="rId94" ref="C95"/>
-    <hyperlink r:id="rId95" ref="C96"/>
-    <hyperlink r:id="rId96" ref="C97"/>
-    <hyperlink r:id="rId97" ref="C98"/>
-    <hyperlink r:id="rId98" ref="C99"/>
-    <hyperlink r:id="rId99" ref="C100"/>
-    <hyperlink r:id="rId100" ref="C101"/>
-    <hyperlink r:id="rId101" ref="C102"/>
-    <hyperlink r:id="rId102" ref="C103"/>
-    <hyperlink r:id="rId103" ref="C104"/>
-    <hyperlink r:id="rId104" ref="C105"/>
-    <hyperlink r:id="rId105" ref="C106"/>
-    <hyperlink r:id="rId106" ref="C107"/>
-    <hyperlink r:id="rId107" ref="C108"/>
-    <hyperlink r:id="rId108" ref="C109"/>
-    <hyperlink r:id="rId109" ref="C110"/>
-    <hyperlink r:id="rId110" ref="C111"/>
-    <hyperlink r:id="rId111" ref="C112"/>
-    <hyperlink r:id="rId112" ref="C113"/>
-    <hyperlink r:id="rId113" ref="C114"/>
-    <hyperlink r:id="rId114" ref="C115"/>
-    <hyperlink r:id="rId115" ref="C116"/>
-    <hyperlink r:id="rId116" ref="C117"/>
-    <hyperlink r:id="rId117" ref="C118"/>
-    <hyperlink r:id="rId118" ref="C119"/>
-    <hyperlink r:id="rId119" ref="C120"/>
-    <hyperlink r:id="rId120" ref="C121"/>
-    <hyperlink r:id="rId121" ref="C122"/>
-    <hyperlink r:id="rId122" ref="C123"/>
-    <hyperlink r:id="rId123" ref="C124"/>
-    <hyperlink r:id="rId124" ref="C125"/>
-    <hyperlink r:id="rId125" ref="C126"/>
-    <hyperlink r:id="rId126" ref="C127"/>
-    <hyperlink r:id="rId127" ref="C128"/>
-    <hyperlink r:id="rId128" ref="C129"/>
-    <hyperlink r:id="rId129" ref="C130"/>
-    <hyperlink r:id="rId130" ref="C131"/>
-    <hyperlink r:id="rId131" ref="C132"/>
-    <hyperlink r:id="rId132" ref="C133"/>
-    <hyperlink r:id="rId133" ref="C134"/>
-    <hyperlink r:id="rId134" ref="C135"/>
-    <hyperlink r:id="rId135" ref="C136"/>
-    <hyperlink r:id="rId136" ref="C137"/>
-    <hyperlink r:id="rId137" ref="C138"/>
-    <hyperlink r:id="rId138" ref="C139"/>
-    <hyperlink r:id="rId139" ref="C140"/>
-    <hyperlink r:id="rId140" ref="C141"/>
-    <hyperlink r:id="rId141" ref="C142"/>
-    <hyperlink r:id="rId142" ref="C143"/>
-    <hyperlink r:id="rId143" ref="C144"/>
-    <hyperlink r:id="rId144" ref="C145"/>
-    <hyperlink r:id="rId145" ref="C146"/>
-    <hyperlink r:id="rId146" ref="C147"/>
-    <hyperlink r:id="rId147" ref="C148"/>
-    <hyperlink r:id="rId148" ref="C149"/>
-    <hyperlink r:id="rId149" ref="C150"/>
-    <hyperlink r:id="rId150" ref="C151"/>
-    <hyperlink r:id="rId151" ref="C152"/>
-    <hyperlink r:id="rId152" ref="C153"/>
-    <hyperlink r:id="rId153" ref="C154"/>
-    <hyperlink r:id="rId154" ref="C155"/>
-    <hyperlink r:id="rId155" ref="C156"/>
-    <hyperlink r:id="rId156" ref="C157"/>
-    <hyperlink r:id="rId157" ref="C158"/>
-    <hyperlink r:id="rId158" ref="C159"/>
-    <hyperlink r:id="rId159" ref="C160"/>
-    <hyperlink r:id="rId160" ref="C161"/>
-    <hyperlink r:id="rId161" ref="C162"/>
-    <hyperlink r:id="rId162" ref="C163"/>
-    <hyperlink r:id="rId163" ref="C164"/>
-    <hyperlink r:id="rId164" ref="C165"/>
-    <hyperlink r:id="rId165" ref="C166"/>
-    <hyperlink r:id="rId166" ref="C167"/>
-    <hyperlink r:id="rId167" ref="C168"/>
-    <hyperlink r:id="rId168" ref="C169"/>
-    <hyperlink r:id="rId169" ref="C170"/>
-    <hyperlink r:id="rId170" ref="C171"/>
-    <hyperlink r:id="rId171" ref="C172"/>
-    <hyperlink r:id="rId172" ref="C173"/>
-    <hyperlink r:id="rId173" ref="C174"/>
-    <hyperlink r:id="rId174" ref="C175"/>
-    <hyperlink r:id="rId175" ref="C176"/>
-    <hyperlink r:id="rId176" ref="C177"/>
-    <hyperlink r:id="rId177" ref="C178"/>
-    <hyperlink r:id="rId178" ref="C179"/>
-    <hyperlink r:id="rId179" ref="C180"/>
-    <hyperlink r:id="rId180" ref="C181"/>
-    <hyperlink r:id="rId181" ref="C182"/>
-    <hyperlink r:id="rId182" ref="C183"/>
-    <hyperlink r:id="rId183" ref="C184"/>
-    <hyperlink r:id="rId184" ref="C185"/>
-    <hyperlink r:id="rId185" ref="C186"/>
-    <hyperlink r:id="rId186" ref="C187"/>
-    <hyperlink r:id="rId187" ref="C188"/>
-    <hyperlink r:id="rId188" ref="C189"/>
-    <hyperlink r:id="rId189" ref="C190"/>
-    <hyperlink r:id="rId190" ref="C191"/>
-    <hyperlink r:id="rId191" ref="C192"/>
-    <hyperlink r:id="rId192" ref="C193"/>
-    <hyperlink r:id="rId193" ref="C194"/>
-    <hyperlink r:id="rId194" ref="C195"/>
-    <hyperlink r:id="rId195" ref="C196"/>
-    <hyperlink r:id="rId196" ref="C197"/>
-    <hyperlink r:id="rId197" ref="C198"/>
-    <hyperlink r:id="rId198" ref="C199"/>
-    <hyperlink r:id="rId199" ref="C200"/>
-    <hyperlink r:id="rId200" ref="C201"/>
-    <hyperlink r:id="rId201" ref="C202"/>
-    <hyperlink r:id="rId202" ref="C203"/>
-    <hyperlink r:id="rId203" ref="C204"/>
-    <hyperlink r:id="rId204" ref="C205"/>
-    <hyperlink r:id="rId205" ref="C206"/>
-    <hyperlink r:id="rId206" ref="C207"/>
-    <hyperlink r:id="rId207" ref="C208"/>
-    <hyperlink r:id="rId208" ref="C209"/>
-    <hyperlink r:id="rId209" ref="C210"/>
-    <hyperlink r:id="rId210" ref="C211"/>
-    <hyperlink r:id="rId211" ref="C212"/>
-    <hyperlink r:id="rId212" ref="C213"/>
-    <hyperlink r:id="rId213" ref="C214"/>
-    <hyperlink r:id="rId214" ref="C215"/>
-    <hyperlink r:id="rId215" ref="C216"/>
-    <hyperlink r:id="rId216" ref="C217"/>
-    <hyperlink r:id="rId217" ref="C218"/>
-    <hyperlink r:id="rId218" ref="C219"/>
-    <hyperlink r:id="rId219" ref="C220"/>
-    <hyperlink r:id="rId220" ref="C221"/>
-    <hyperlink r:id="rId221" ref="C222"/>
-    <hyperlink r:id="rId222" ref="C223"/>
-    <hyperlink r:id="rId223" ref="C224"/>
-    <hyperlink r:id="rId224" ref="C225"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
   </hyperlinks>
-  <drawing r:id="rId225"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/B.xlsx
+++ b/public/B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithya Menon\OneDrive\Documents\GDGC\Web_Expert\Gen-AI\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3409EFD-293F-44F5-BC36-B3BE58A3AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B479B-8361-4736-B934-A556378EB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="725">
   <si>
     <t>User Name</t>
   </si>
@@ -70,1467 +70,1500 @@
     <t>No</t>
   </si>
   <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Amisha Verma</t>
+  </si>
+  <si>
+    <t>amishavermadbit60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d037c2d6-5448-45a9-99f3-1ba45c25ebf6</t>
+  </si>
+  <si>
+    <t>Glynis D'Mello</t>
+  </si>
+  <si>
+    <t>glynisdarryldmello@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Vaishnavi Sawant</t>
+  </si>
+  <si>
+    <t>vaishnavi31272@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shaun Rodrigues</t>
+  </si>
+  <si>
+    <t>shaunrodrigues4321@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Liston D'souza</t>
+  </si>
+  <si>
+    <t>liston4lyfe@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ankita M Gadre</t>
+  </si>
+  <si>
+    <t>ankitagadre18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Level 3: Generative AI [Game]</t>
+  </si>
+  <si>
+    <t>Bhumi Shashikant Lotankar</t>
+  </si>
+  <si>
+    <t>thecodecipherr@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aarya Pate</t>
+  </si>
+  <si>
+    <t>aaryapate6@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aaditi Bhatade</t>
+  </si>
+  <si>
+    <t>aaditibhatade1229@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
+  </si>
+  <si>
+    <t>CHERLIN TERENCE LOBO</t>
+  </si>
+  <si>
+    <t>loboc1705@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
+  </si>
+  <si>
+    <t>Anusha Jitendra Gupta</t>
+  </si>
+  <si>
+    <t>anusha.gupta1307@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shravani Pokale</t>
+  </si>
+  <si>
+    <t>shravanip2503@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Asma Sayed</t>
+  </si>
+  <si>
+    <t>asmasayed341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Adithya Menon</t>
+  </si>
+  <si>
+    <t>frankenstienmenon@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
+  </si>
+  <si>
+    <t>JIshnu Gopalakrishnan Nair</t>
+  </si>
+  <si>
+    <t>jishnuforcloud@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alina Koshy</t>
+  </si>
+  <si>
+    <t>koshyalinagdg76@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Hemal Manohar Bhirud</t>
+  </si>
+  <si>
+    <t>hmbhirud2024@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Alston Damian Coelho</t>
+  </si>
+  <si>
+    <t>alstoncoelho05@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
+  </si>
+  <si>
+    <t>Bhanudas Nivrutti Patil</t>
+  </si>
+  <si>
+    <t>p9579b@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
+  </si>
+  <si>
+    <t>Sahil Sandeep Vernekar</t>
+  </si>
+  <si>
+    <t>sahilvernekar60@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
+  </si>
+  <si>
+    <t>Piyush Prashant Khandait</t>
+  </si>
+  <si>
+    <t>khandaitpiyush@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
+  </si>
+  <si>
+    <t>Nazeefa Mohammed Ahsan Hussain</t>
+  </si>
+  <si>
+    <t>nazeefahussain2301@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
+  </si>
+  <si>
+    <t>Jayesh Sanjay Wani</t>
+  </si>
+  <si>
+    <t>jayesh@flockshop.in</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
+  </si>
+  <si>
+    <t>Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shraddha Gajanan Desai</t>
+  </si>
+  <si>
+    <t>shraddhadesai3176@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Yash Shankar Khatpe</t>
+  </si>
+  <si>
+    <t>yashkhatpe5@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Pearlin Charlston Tixeira</t>
+  </si>
+  <si>
+    <t>pearlint6gdg@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
+  </si>
+  <si>
+    <t>Yash Narayan Manore</t>
+  </si>
+  <si>
+    <t>yashmanore12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>aryanstudies28@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Gururaj Sanjay Panse</t>
+  </si>
+  <si>
+    <t>gururajgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
+  </si>
+  <si>
+    <t>Neil Joseph Palissery</t>
+  </si>
+  <si>
+    <t>neilpalissery0786@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Simone Agnel D'sa</t>
+  </si>
+  <si>
+    <t>dsasimone89@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
+  </si>
+  <si>
+    <t>Akshay Radhakrishnan Menon</t>
+  </si>
+  <si>
+    <t>menonakshaydb@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Om Waghmare</t>
+  </si>
+  <si>
+    <t>omwaghmare4625@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
+  </si>
+  <si>
+    <t>Ananya Pravin Shetty</t>
+  </si>
+  <si>
+    <t>shettyananya53@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
+  </si>
+  <si>
+    <t>Shrutika Phatangare</t>
+  </si>
+  <si>
+    <t>shrutikaphatangare9@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
+  </si>
+  <si>
+    <t>Shubham chandrashekar padhy</t>
+  </si>
+  <si>
+    <t>shubhampadhy1808@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
+  </si>
+  <si>
+    <t>Aden Pereira</t>
+  </si>
+  <si>
+    <t>adenpereira10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Prachi Mandlik</t>
+  </si>
+  <si>
+    <t>mandlikprachi324@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
+  </si>
+  <si>
+    <t>Lester Mark Richard</t>
+  </si>
+  <si>
+    <t>lestermarkrichard747@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
+  </si>
+  <si>
+    <t>Swarup Patil</t>
+  </si>
+  <si>
+    <t>git.swarup@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ritesh Brijesh Singh</t>
+  </si>
+  <si>
+    <t>singhritesh300906@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
+  </si>
+  <si>
+    <t>Soham Santosh Kokane</t>
+  </si>
+  <si>
+    <t>kokanesohamgdgc06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Mrunal Sagvekar</t>
+  </si>
+  <si>
+    <t>mrunal4860@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
+  </si>
+  <si>
+    <t>Anusha Shibu</t>
+  </si>
+  <si>
+    <t>anushasj223@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Kathan Shethia</t>
+  </si>
+  <si>
+    <t>kathan.shethia@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
+  </si>
+  <si>
+    <t>Mayuri Manoj Prasad</t>
+  </si>
+  <si>
+    <t>prasadmayuri0507@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
+  </si>
+  <si>
+    <t>Anoushka Pai</t>
+  </si>
+  <si>
+    <t>pai.anoushka247@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ratan Dinesh Kalke</t>
+  </si>
+  <si>
+    <t>ratangdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Samantha Anthony</t>
+  </si>
+  <si>
+    <t>anthonysamantha1512@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
+  </si>
+  <si>
+    <t>Samruddhi Vijay Shrawagi</t>
+  </si>
+  <si>
+    <t>samruddhi.shrawagi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
+  </si>
+  <si>
+    <t>Elissa Quadros</t>
+  </si>
+  <si>
+    <t>quadroselissa0518@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
+  </si>
+  <si>
+    <t>Johan Fernandes</t>
+  </si>
+  <si>
+    <t>phantomextac@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
+  </si>
+  <si>
+    <t>Shraddha Sheshagiri Hebbar</t>
+  </si>
+  <si>
+    <t>hebbarshraddha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
+  </si>
+  <si>
+    <t>Prem Popat Mane</t>
+  </si>
+  <si>
+    <t>prem23mane02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
+  </si>
+  <si>
+    <t>Jean Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzajean27@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
+  </si>
+  <si>
+    <t>Isha Sairaj Samant</t>
+  </si>
+  <si>
+    <t>ishasmnt06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Raissa Auree Dsouza</t>
+  </si>
+  <si>
+    <t>dsouzaraissa64@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
+  </si>
+  <si>
+    <t>Mahek Yadav</t>
+  </si>
+  <si>
+    <t>ymahek341@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
+  </si>
+  <si>
+    <t>Archit Mahajan</t>
+  </si>
+  <si>
+    <t>architmahajan1011@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
+  </si>
+  <si>
+    <t>Deviprasad Shetty</t>
+  </si>
+  <si>
+    <t>devigdgc25@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
+  </si>
+  <si>
+    <t>Himanshu Firke</t>
+  </si>
+  <si>
+    <t>firakehimanshu@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
+  </si>
+  <si>
+    <t>Dannish Bhardwaj</t>
+  </si>
+  <si>
+    <t>bhardwajdannish@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
+  </si>
+  <si>
+    <t>Bhavika Bhushan Bhirud</t>
+  </si>
+  <si>
+    <t>bhavikabhirud12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
+  </si>
+  <si>
+    <t>Lakshya Agarwal</t>
+  </si>
+  <si>
+    <t>lakshya.d.agarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
+  </si>
+  <si>
+    <t>Astha Jayprakash Bombale</t>
+  </si>
+  <si>
+    <t>asthabomble@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
+  </si>
+  <si>
+    <t>Tanush Karane</t>
+  </si>
+  <si>
+    <t>tanushk1608@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
+  </si>
+  <si>
+    <t>Tanishka Rokade</t>
+  </si>
+  <si>
+    <t>gdgctanishka@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
+  </si>
+  <si>
+    <t>Sushmita Mishra</t>
+  </si>
+  <si>
+    <t>06sushmitamishra@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
+  </si>
+  <si>
+    <t>Savita Patil</t>
+  </si>
+  <si>
+    <t>patilsavita3440@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
+  </si>
+  <si>
+    <t>Arya Dharmadhikari</t>
+  </si>
+  <si>
+    <t>dharmadhikariarya10@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
+  </si>
+  <si>
+    <t>Mohd Yahiya Siddiqui</t>
+  </si>
+  <si>
+    <t>yahiyasiddiqui02@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
+  </si>
+  <si>
+    <t>Sushant Nistane</t>
+  </si>
+  <si>
+    <t>nistanesushant@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
+  </si>
+  <si>
+    <t>Bhaven Yogesh Bhole</t>
+  </si>
+  <si>
+    <t>bholebhaven@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
+  </si>
+  <si>
+    <t>Yash Sanjay</t>
+  </si>
+  <si>
+    <t>Yashsj2006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
+  </si>
+  <si>
+    <t>Yashica Borkar</t>
+  </si>
+  <si>
+    <t>yashi.caborkar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
+  </si>
+  <si>
+    <t>Shane Fernandes</t>
+  </si>
+  <si>
+    <t>shanefernandes0003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
+  </si>
+  <si>
+    <t>Mhase Dhanesh Bhanudas Bhavana</t>
+  </si>
+  <si>
+    <t>dhaneshvad21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
+  </si>
+  <si>
+    <t>Navya Vinod Nair</t>
+  </si>
+  <si>
+    <t>navyanair1809@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
+  </si>
+  <si>
+    <t>Brendon Ayalin</t>
+  </si>
+  <si>
+    <t>brendonayalin06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
+  </si>
+  <si>
+    <t>Steve Serrao</t>
+  </si>
+  <si>
+    <t>steveserrao163@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
+  </si>
+  <si>
+    <t>Apurva Kohad</t>
+  </si>
+  <si>
+    <t>kohadapurva@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
+  </si>
+  <si>
+    <t>Nilay Shahane</t>
+  </si>
+  <si>
+    <t>shahanenilay12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
+  </si>
+  <si>
+    <t>Hardik Khare</t>
+  </si>
+  <si>
+    <t>kharehardik30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
+  </si>
+  <si>
+    <t>JOSEPH STALIN KOLLANOOR</t>
+  </si>
+  <si>
+    <t>stalinj65325@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
+  </si>
+  <si>
+    <t>Risa Mathew Kadandot</t>
+  </si>
+  <si>
+    <t>risamathewk@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
+  </si>
+  <si>
+    <t>Shariya Ansari</t>
+  </si>
+  <si>
+    <t>shariya0409@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
+  </si>
+  <si>
+    <t>Tanvi Kale</t>
+  </si>
+  <si>
+    <t>tanvikale2286@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Aryan Dany Periyathra</t>
+  </si>
+  <si>
+    <t>aryan15dany@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
+  </si>
+  <si>
+    <t>Princel Charleston Tixeira</t>
+  </si>
+  <si>
+    <t>gdgc224princelt@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Sanket Pratap Jadhav</t>
+  </si>
+  <si>
+    <t>sanketpj98@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Irene Sebastian Illikal</t>
+  </si>
+  <si>
+    <t>irene.sid@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
+  </si>
+  <si>
+    <t>Shaikh Mohommad Shahid</t>
+  </si>
+  <si>
+    <t>zzzzsnap215@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
+  </si>
+  <si>
+    <t>Atharva Vinod Ghag</t>
+  </si>
+  <si>
+    <t>atharvaghag800@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
+  </si>
+  <si>
+    <t>Keshav Kuldip Prajapati</t>
+  </si>
+  <si>
+    <t>prajapatikeshav497@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
+  </si>
+  <si>
+    <t>Aneesh Mhasawade</t>
+  </si>
+  <si>
+    <t>onisop300@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
+  </si>
+  <si>
+    <t>Prathmesh Manoj Sawant</t>
+  </si>
+  <si>
+    <t>prathmeshgdgc@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
+  </si>
+  <si>
+    <t>Krushnali Dinesh Mungekar</t>
+  </si>
+  <si>
+    <t>mungekarkrushnali7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Madhura Sunil Kedar</t>
+  </si>
+  <si>
+    <t>madhurakedar442@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
+  </si>
+  <si>
+    <t>Sameer Vishwanath Mhapsekar</t>
+  </si>
+  <si>
+    <t>sameermhapsekar12@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
+  </si>
+  <si>
+    <t>Bharthi Annapandi</t>
+  </si>
+  <si>
+    <t>bharthiannapandi@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Shubham S Mahajani</t>
+  </si>
+  <si>
+    <t>mahajanishubham19@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
+  </si>
+  <si>
+    <t>Prashant Ashok Ghuge</t>
+  </si>
+  <si>
+    <t>ghugeprashant44@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
+  </si>
+  <si>
+    <t>Daniel Fernandes</t>
+  </si>
+  <si>
+    <t>danieldinos456@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
+  </si>
+  <si>
+    <t>Kate Dsouza</t>
+  </si>
+  <si>
+    <t>28katedsouza@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
+  </si>
+  <si>
+    <t>Mahie Jeetendra Jain</t>
+  </si>
+  <si>
+    <t>jainmahie@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
+  </si>
+  <si>
+    <t>Tanvi Rupesh Patil</t>
+  </si>
+  <si>
+    <t>tanvirupesh7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
+  </si>
+  <si>
+    <t>Prathamesh Dinesh Kurdekar</t>
+  </si>
+  <si>
+    <t>prathamesh140605@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
+  </si>
+  <si>
+    <t>Alysha Dsouza</t>
+  </si>
+  <si>
+    <t>dsouza.alysha07@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
+  </si>
+  <si>
+    <t>Vimla Choudhary</t>
+  </si>
+  <si>
+    <t>vimlachoudhary2612@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
+  </si>
+  <si>
+    <t>Neha Haldankar</t>
+  </si>
+  <si>
+    <t>mitsuriii888@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
+  </si>
+  <si>
+    <t>Saurav Ghodke</t>
+  </si>
+  <si>
+    <t>ghodkek606@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
+  </si>
+  <si>
+    <t>Sebastian Karia</t>
+  </si>
+  <si>
+    <t>sebastiankaria36@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
+  </si>
+  <si>
+    <t>Samruddhi Patil</t>
+  </si>
+  <si>
+    <t>patilmanasvi0101@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
+  </si>
+  <si>
+    <t>Mayur Gardaswar</t>
+  </si>
+  <si>
+    <t>gardaswarmayur08@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
+  </si>
+  <si>
+    <t>Het Pravin Visariya</t>
+  </si>
+  <si>
+    <t>hetvisariya06@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
+  </si>
+  <si>
+    <t>Soham Rahatwal</t>
+  </si>
+  <si>
+    <t>sohamrahatwal15@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
+  </si>
+  <si>
+    <t>Samuel Pereira</t>
+  </si>
+  <si>
+    <t>pereirasamuelsp20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
+  </si>
+  <si>
+    <t>Shikha jhawar</t>
+  </si>
+  <si>
+    <t>jhawarshikha18@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
+  </si>
+  <si>
+    <t>Varad Khadilkar</t>
+  </si>
+  <si>
+    <t>khadilkarvarad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
+  </si>
+  <si>
     <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
   </si>
   <si>
-    <t>Amisha Verma</t>
-  </si>
-  <si>
-    <t>amishavermadbit60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d037c2d6-5448-45a9-99f3-1ba45c25ebf6</t>
-  </si>
-  <si>
-    <t>Glynis D'Mello</t>
-  </si>
-  <si>
-    <t>glynisdarryldmello@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9206cc1a-49fd-4d4a-941f-cd4fc9b42dcd</t>
-  </si>
-  <si>
-    <t>Vaishnavi Sawant</t>
-  </si>
-  <si>
-    <t>vaishnavi31272@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a5c328b3-ae81-477f-8235-9b3043d382ad</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shaun Rodrigues</t>
-  </si>
-  <si>
-    <t>shaunrodrigues4321@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49905684-9f57-4797-a903-6a51efdafda2</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Liston D'souza</t>
-  </si>
-  <si>
-    <t>liston4lyfe@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1ef3fa1-ea5c-4913-8de0-8fd302dafb91</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ankita M Gadre</t>
-  </si>
-  <si>
-    <t>ankitagadre18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0e35a44e-8df1-4169-9d50-73914b292d0e</t>
-  </si>
-  <si>
-    <t>Level 3: Generative AI [Game]</t>
-  </si>
-  <si>
-    <t>Bhumi Shashikant Lotankar</t>
-  </si>
-  <si>
-    <t>thecodecipherr@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9aea352c-fccf-448b-a777-ffa93a6d5189</t>
-  </si>
-  <si>
-    <t>Aarya Pate</t>
-  </si>
-  <si>
-    <t>aaryapate6@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54f0f3c8-4e87-46ef-b297-25ccfbe6b1c5</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Aaditi Bhatade</t>
-  </si>
-  <si>
-    <t>aaditibhatade1229@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/044f8271-7d2c-4ce4-ba92-a65c2db58dbb</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>CHERLIN TERENCE LOBO</t>
-  </si>
-  <si>
-    <t>loboc1705@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92b20ab8-5cac-4133-a346-0458b73992f5</t>
-  </si>
-  <si>
-    <t>Anusha Jitendra Gupta</t>
-  </si>
-  <si>
-    <t>anusha.gupta1307@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a61858f4-3e9e-435d-b8d0-b66bb8824cac</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Shravani Pokale</t>
-  </si>
-  <si>
-    <t>shravanip2503@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2246fa3b-a194-4463-96b9-a0d02cdf6118</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Asma Sayed</t>
-  </si>
-  <si>
-    <t>asmasayed341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a0886f07-66e9-4398-9808-d43520820a2d</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Adithya Menon</t>
-  </si>
-  <si>
-    <t>frankenstienmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4eee27f0-5fd1-4200-b7bb-d90f2aa18f7e</t>
-  </si>
-  <si>
-    <t>JIshnu Gopalakrishnan Nair</t>
-  </si>
-  <si>
-    <t>jishnuforcloud@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4939701a-56cd-4adf-b056-9d06fa0e37d0</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alina Koshy</t>
-  </si>
-  <si>
-    <t>koshyalinagdg76@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/23e69245-caba-415e-9db0-771f6ef480d3</t>
-  </si>
-  <si>
-    <t>Hemal Manohar Bhirud</t>
-  </si>
-  <si>
-    <t>hmbhirud2024@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/77506578-afbb-4923-82b6-cb64e21a7512</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Alston Damian Coelho</t>
-  </si>
-  <si>
-    <t>alstoncoelho05@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6c615c17-f99a-4d54-af41-b6da9d8cf57b</t>
-  </si>
-  <si>
-    <t>Bhanudas Nivrutti Patil</t>
-  </si>
-  <si>
-    <t>p9579b@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/49afeb32-235d-4e6e-92fe-a2313bc9aa92</t>
-  </si>
-  <si>
-    <t>Sahil Sandeep Vernekar</t>
-  </si>
-  <si>
-    <t>sahilvernekar60@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f030f38f-2cb3-4e02-890a-1d4f77c0fb5c</t>
-  </si>
-  <si>
-    <t>Piyush Prashant Khandait</t>
-  </si>
-  <si>
-    <t>khandaitpiyush@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/876f32a5-350b-4270-8998-3a031efe96e4</t>
-  </si>
-  <si>
-    <t>Nazeefa Mohammed Ahsan Hussain</t>
-  </si>
-  <si>
-    <t>nazeefahussain2301@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1fe30bcf-305d-444c-b114-c9628b44fffb</t>
-  </si>
-  <si>
-    <t>Jayesh Sanjay Wani</t>
-  </si>
-  <si>
-    <t>jayesh@flockshop.in</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b663a013-30a7-4483-957e-ef1558a1092b</t>
-  </si>
-  <si>
-    <t>Shraddha Gajanan Desai</t>
-  </si>
-  <si>
-    <t>shraddhadesai3176@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4f74f48f-30a2-447a-9a44-3760a8d67699</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Shankar Khatpe</t>
-  </si>
-  <si>
-    <t>yashkhatpe5@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f2fb838f-547e-47e0-ae93-aa38173cf396</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Pearlin Charlston Tixeira</t>
-  </si>
-  <si>
-    <t>pearlint6gdg@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3a378fb2-da15-4174-91bb-b7943678f27a</t>
-  </si>
-  <si>
-    <t>Yash Narayan Manore</t>
-  </si>
-  <si>
-    <t>yashmanore12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b5679c7f-aa39-4d76-8dbf-e3d3418d9a9e</t>
-  </si>
-  <si>
-    <t>Aryan Yadav</t>
-  </si>
-  <si>
-    <t>aryanstudies28@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8a3edee6-84e7-496f-9d61-421f21db4b9e</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Gururaj Sanjay Panse</t>
-  </si>
-  <si>
-    <t>gururajgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45d71e14-13d8-4bdf-9c66-edfde7632cbf</t>
-  </si>
-  <si>
-    <t>Neil Joseph Palissery</t>
-  </si>
-  <si>
-    <t>neilpalissery0786@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bb40fcf3-b3bf-48a2-9d1a-74b2f0cba64e</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Simone Agnel D'sa</t>
-  </si>
-  <si>
-    <t>dsasimone89@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/eb3dfa46-d88a-400f-8215-4c7f16df0fbb</t>
-  </si>
-  <si>
-    <t>Akshay Radhakrishnan Menon</t>
-  </si>
-  <si>
-    <t>menonakshaydb@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/049b054f-5cb7-41dd-88f6-e8caa11891f8</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Om Waghmare</t>
-  </si>
-  <si>
-    <t>omwaghmare4625@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6d01a77e-f323-4fbf-9b6e-3848f19da63e</t>
-  </si>
-  <si>
-    <t>Ananya Pravin Shetty</t>
-  </si>
-  <si>
-    <t>shettyananya53@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d27e8924-b105-40c8-890c-b742dae07efd</t>
-  </si>
-  <si>
-    <t>Shrutika Phatangare</t>
-  </si>
-  <si>
-    <t>shrutikaphatangare9@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/177e0d75-002f-4e2c-a836-b71b57ce0718</t>
-  </si>
-  <si>
-    <t>Shubham chandrashekar padhy</t>
-  </si>
-  <si>
-    <t>shubhampadhy1808@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1058c6d0-b9e2-4f1c-b8f0-30d4fc63d5f7</t>
-  </si>
-  <si>
-    <t>Aden Pereira</t>
-  </si>
-  <si>
-    <t>adenpereira10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bb9003-f5c2-47d2-b22c-942d8ca24a71</t>
-  </si>
-  <si>
-    <t>Prachi Mandlik</t>
-  </si>
-  <si>
-    <t>mandlikprachi324@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e58619af-8bf2-4600-a3a4-f5769421a406</t>
-  </si>
-  <si>
-    <t>Lester Mark Richard</t>
-  </si>
-  <si>
-    <t>lestermarkrichard747@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9374a1a6-d641-4bfe-9a7b-7e3425389cbd</t>
-  </si>
-  <si>
-    <t>Swarup Patil</t>
-  </si>
-  <si>
-    <t>git.swarup@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/620cd260-f5a0-4480-bdce-d8ac313b5808</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ritesh Brijesh Singh</t>
-  </si>
-  <si>
-    <t>singhritesh300906@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4d6a596e-80ff-42a1-aa32-4c38f3d3743f</t>
-  </si>
-  <si>
-    <t>Soham Santosh Kokane</t>
-  </si>
-  <si>
-    <t>kokanesohamgdgc06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b364ab8-c82a-4ab7-914a-31830fd69e86</t>
-  </si>
-  <si>
-    <t>Mrunal Sagvekar</t>
-  </si>
-  <si>
-    <t>mrunal4860@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d2a8b53f-3f41-4660-9061-9c0a40432a68</t>
-  </si>
-  <si>
-    <t>Anusha Shibu</t>
-  </si>
-  <si>
-    <t>anushasj223@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4561d1c8-8717-491a-a46d-c9c59bd97b4b</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Store, Process, and Manage Data on Google Cloud - Console [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Kathan Shethia</t>
-  </si>
-  <si>
-    <t>kathan.shethia@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8091ab1c-564d-493b-a87e-4f39e5e19e45</t>
-  </si>
-  <si>
-    <t>Mayuri Manoj Prasad</t>
-  </si>
-  <si>
-    <t>prasadmayuri0507@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/de870ff3-a6c0-4f6e-8cac-30fbc2337d24</t>
-  </si>
-  <si>
-    <t>Anoushka Pai</t>
-  </si>
-  <si>
-    <t>pai.anoushka247@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5607b40c-f6de-4d1c-b1e3-966bdedb3a06</t>
-  </si>
-  <si>
-    <t>Ratan Dinesh Kalke</t>
-  </si>
-  <si>
-    <t>ratangdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/346ff332-0c9a-4db3-8c47-1fb4a5ded9d7</t>
-  </si>
-  <si>
-    <t>Samantha Anthony</t>
-  </si>
-  <si>
-    <t>anthonysamantha1512@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4bd80312-74d3-4d49-a7b5-a47961f4975c</t>
-  </si>
-  <si>
-    <t>Samruddhi Vijay Shrawagi</t>
-  </si>
-  <si>
-    <t>samruddhi.shrawagi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ea0b41aa-14c6-44f4-a5dd-89bd409c822b</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Elissa Quadros</t>
-  </si>
-  <si>
-    <t>quadroselissa0518@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82281a25-2899-4877-a05c-4fed3d9f596d</t>
-  </si>
-  <si>
-    <t>Johan Fernandes</t>
-  </si>
-  <si>
-    <t>phantomextac@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dba07942-0d7b-447f-a6fa-db169b0a49c9</t>
-  </si>
-  <si>
-    <t>Shraddha Sheshagiri Hebbar</t>
-  </si>
-  <si>
-    <t>hebbarshraddha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b5e911f-4fa0-4684-bfc7-cbd89363e254</t>
-  </si>
-  <si>
-    <t>Prem Popat Mane</t>
-  </si>
-  <si>
-    <t>prem23mane02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/66110f20-62ed-45cd-88db-2d68fa746fae</t>
-  </si>
-  <si>
-    <t>Jean Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzajean27@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3540eccb-2ace-4634-adcf-99e75da6c38c</t>
-  </si>
-  <si>
-    <t>Isha Sairaj Samant</t>
-  </si>
-  <si>
-    <t>ishasmnt06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/34bce616-ff26-4d16-98f8-ec0452d8cd61</t>
-  </si>
-  <si>
-    <t>Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Analyze Speech and Language with Google APIs [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Raissa Auree Dsouza</t>
-  </si>
-  <si>
-    <t>dsouzaraissa64@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/58463b1d-813b-4ee4-a5ca-963fe4e8c6c1</t>
-  </si>
-  <si>
-    <t>Mahek Yadav</t>
-  </si>
-  <si>
-    <t>ymahek341@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9c4a2b7f-0ffd-4cad-8238-d2f53756f945</t>
-  </si>
-  <si>
-    <t>Archit Mahajan</t>
-  </si>
-  <si>
-    <t>architmahajan1011@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/92a8e8a2-51e1-4747-a91e-36e9e7bd803d</t>
-  </si>
-  <si>
-    <t>Deviprasad Shetty</t>
-  </si>
-  <si>
-    <t>devigdgc25@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c680a1ed-13e4-4633-8ef3-ef5391b779b8</t>
-  </si>
-  <si>
-    <t>Himanshu Firke</t>
-  </si>
-  <si>
-    <t>firakehimanshu@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b7d548c9-7346-4f66-8a2a-bb750141c943</t>
-  </si>
-  <si>
-    <t>Dannish Bhardwaj</t>
-  </si>
-  <si>
-    <t>bhardwajdannish@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/56894bb9-bedb-4423-82f8-3aa2f5bea5af</t>
-  </si>
-  <si>
-    <t>Bhavika Bhushan Bhirud</t>
-  </si>
-  <si>
-    <t>bhavikabhirud12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/45217d2f-2f39-4973-8df0-64a4dcb9bf0f</t>
-  </si>
-  <si>
-    <t>Lakshya Agarwal</t>
-  </si>
-  <si>
-    <t>lakshya.d.agarwal@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/54dd5311-dae2-4990-87ba-ca59c0996a7c</t>
-  </si>
-  <si>
-    <t>Astha Jayprakash Bombale</t>
-  </si>
-  <si>
-    <t>asthabomble@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd94ad24-38d7-4ed7-a8b0-bbba1cf2bec0</t>
-  </si>
-  <si>
-    <t>Tanush Karane</t>
-  </si>
-  <si>
-    <t>tanushk1608@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d0a2c024-ceb8-4877-8fc6-2bad553e12d0</t>
-  </si>
-  <si>
-    <t>Tanishka Rokade</t>
-  </si>
-  <si>
-    <t>gdgctanishka@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/d4c1b092-7edb-4d5b-9daa-a28239138c09</t>
-  </si>
-  <si>
-    <t>Sushmita Mishra</t>
-  </si>
-  <si>
-    <t>06sushmitamishra@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3194ad7b-d4d4-47ac-af12-b2f2bc69de17</t>
-  </si>
-  <si>
-    <t>Savita Patil</t>
-  </si>
-  <si>
-    <t>patilsavita3440@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a396302a-712a-4681-9b6f-a0a88f728904</t>
-  </si>
-  <si>
-    <t>Arya Dharmadhikari</t>
-  </si>
-  <si>
-    <t>dharmadhikariarya10@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c2ef47dd-4542-413b-834f-708389c4c071</t>
-  </si>
-  <si>
-    <t>Mohd Yahiya Siddiqui</t>
-  </si>
-  <si>
-    <t>yahiyasiddiqui02@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cef8edd8-fa08-4849-b1cf-0d2ec05d2285</t>
-  </si>
-  <si>
-    <t>Sushant Nistane</t>
-  </si>
-  <si>
-    <t>nistanesushant@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/22c168e0-f206-4f46-8cf3-ef5a9e5927f0</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Bhaven Yogesh Bhole</t>
-  </si>
-  <si>
-    <t>bholebhaven@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e1d0b2d0-7dfe-444d-969a-9391feb9a83e</t>
-  </si>
-  <si>
-    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | App Engine: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Yash Sanjay</t>
-  </si>
-  <si>
-    <t>Yashsj2006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/987a4cab-ce05-4e5c-91a4-51283927b18b</t>
-  </si>
-  <si>
-    <t>Yashica Borkar</t>
-  </si>
-  <si>
-    <t>yashi.caborkar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/5b7a762d-ddf4-4456-8b5a-add8a33f84e9</t>
-  </si>
-  <si>
-    <t>Shane Fernandes</t>
-  </si>
-  <si>
-    <t>shanefernandes0003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/da1639b2-b6d6-4b11-803c-0d4b29ec0cd5</t>
-  </si>
-  <si>
-    <t>Mhase Dhanesh Bhanudas Bhavana</t>
-  </si>
-  <si>
-    <t>dhaneshvad21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6661ddf5-cf05-4a0e-9e79-c47967990bd1</t>
-  </si>
-  <si>
-    <t>Navya Vinod Nair</t>
-  </si>
-  <si>
-    <t>navyanair1809@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/48002f84-422d-4815-a960-36f8aab85472</t>
-  </si>
-  <si>
-    <t>Brendon Ayalin</t>
-  </si>
-  <si>
-    <t>brendonayalin06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2518e5e9-b560-446f-9dd3-18cb765116b3</t>
-  </si>
-  <si>
-    <t>Steve Serrao</t>
-  </si>
-  <si>
-    <t>steveserrao163@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9630f74c-04b4-47c5-a728-f4e4e5ed17c2</t>
-  </si>
-  <si>
-    <t>Apurva Kohad</t>
-  </si>
-  <si>
-    <t>kohadapurva@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c25444e6-6f24-49eb-8cad-02122ce2545d</t>
-  </si>
-  <si>
-    <t>Nilay Shahane</t>
-  </si>
-  <si>
-    <t>shahanenilay12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/1ca6987a-bba6-4da3-80fb-241a9dc3a5cb</t>
-  </si>
-  <si>
-    <t>Hardik Khare</t>
-  </si>
-  <si>
-    <t>kharehardik30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b839f5b3-b491-4d96-a103-99910e020c90</t>
-  </si>
-  <si>
-    <t>JOSEPH STALIN KOLLANOOR</t>
-  </si>
-  <si>
-    <t>stalinj65325@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9996c15c-b8de-406c-98cc-9b915cbbc0b7</t>
-  </si>
-  <si>
-    <t>Risa Mathew Kadandot</t>
-  </si>
-  <si>
-    <t>risamathewk@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ac16d1eb-ef6e-4eea-9df9-247b357a8375</t>
-  </si>
-  <si>
-    <t>Shariya Ansari</t>
-  </si>
-  <si>
-    <t>shariya0409@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1a1f04b-1e0f-4ef8-986d-715396ea6178</t>
-  </si>
-  <si>
-    <t>Tanvi Kale</t>
-  </si>
-  <si>
-    <t>tanvikale2286@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ea09505-88be-4473-901f-2a7de88876e8</t>
+    <t>Atharv Prakash Yadav</t>
+  </si>
+  <si>
+    <t>atharvyadav1720@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
+  </si>
+  <si>
+    <t>Ritesh Kode</t>
+  </si>
+  <si>
+    <t>riteshkode547@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
+  </si>
+  <si>
+    <t>Amey Kiran Badgujar</t>
+  </si>
+  <si>
+    <t>ameykiranbadgujar@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
+  </si>
+  <si>
+    <t>Shelly Benny Vadakkan</t>
+  </si>
+  <si>
+    <t>shellybenny21@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
+  </si>
+  <si>
+    <t>Tejas Santosh Bhosale</t>
+  </si>
+  <si>
+    <t>tejasbhosale568@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
+  </si>
+  <si>
+    <t>Soniya Ryan Xavier</t>
+  </si>
+  <si>
+    <t>soniyarxavier@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
+  </si>
+  <si>
+    <t>Anushka Sonawane</t>
+  </si>
+  <si>
+    <t>amson2505@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
+  </si>
+  <si>
+    <t>Dhruvin Hitesh Chudasama</t>
+  </si>
+  <si>
+    <t>hiteshchudasama0271@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
+  </si>
+  <si>
+    <t>Atharva jahagirdar</t>
+  </si>
+  <si>
+    <t>Heheatha@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
+  </si>
+  <si>
+    <t>mrudula sonawane</t>
+  </si>
+  <si>
+    <t>323mrudula0023@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
+  </si>
+  <si>
+    <t>Shubham Gharat</t>
+  </si>
+  <si>
+    <t>sandygharat1975@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
+  </si>
+  <si>
+    <t>Vidisha Mankar</t>
+  </si>
+  <si>
+    <t>vida282006@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
+  </si>
+  <si>
+    <t>Aayush Nikhare</t>
+  </si>
+  <si>
+    <t>aayushnikhare30@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
+  </si>
+  <si>
+    <t>Ryan Dsouza</t>
+  </si>
+  <si>
+    <t>ryandsouza0012@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Bhumika Patil</t>
+  </si>
+  <si>
+    <t>bhu.patil216@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
+  </si>
+  <si>
+    <t>Ojal Kundan Ramteke</t>
+  </si>
+  <si>
+    <t>ojalkramteke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
+  </si>
+  <si>
+    <t>Anay Deshpande</t>
+  </si>
+  <si>
+    <t>danay5867@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Ketan Suresh Shelke</t>
+  </si>
+  <si>
+    <t>ketan.sureshshelke@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
+  </si>
+  <si>
+    <t>Aditya Ashok Patil</t>
+  </si>
+  <si>
+    <t>patiladitya1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
+  </si>
+  <si>
+    <t>Rishik Sudheer Ezhuthachan</t>
+  </si>
+  <si>
+    <t>rishiks2508@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
+  </si>
+  <si>
+    <t>Atharva Yogesh Shimpi</t>
+  </si>
+  <si>
+    <t>atharva230407@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
+  </si>
+  <si>
+    <t>Chaudhari Chetan Kishor</t>
+  </si>
+  <si>
+    <t>chetanchaudhari1729@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
+  </si>
+  <si>
+    <t>Ameya Gadre</t>
+  </si>
+  <si>
+    <t>iknowright068@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
+  </si>
+  <si>
+    <t>Shrushti Pandurang Benke</t>
+  </si>
+  <si>
+    <t>shrushti.career@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
+  </si>
+  <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
+  </si>
+  <si>
+    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
+  </si>
+  <si>
+    <t>newtondsouza1402@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
+  </si>
+  <si>
+    <t>Kaustubh Deshmane</t>
+  </si>
+  <si>
+    <t>kddummy345@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
+  </si>
+  <si>
+    <t>Joshua Almeida</t>
+  </si>
+  <si>
+    <t>joshuaalmeida003@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
+  </si>
+  <si>
+    <t>Ayush Arun Sawant</t>
+  </si>
+  <si>
+    <t>spotifypremiumuse438@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
+  </si>
+  <si>
+    <t>Piyush Mistry</t>
+  </si>
+  <si>
+    <t>mistrypiyush1234@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
+  </si>
+  <si>
+    <t>Samara Nazareth</t>
+  </si>
+  <si>
+    <t>samaraclarenazareth@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
+  </si>
+  <si>
+    <t>Chaitanya gali</t>
+  </si>
+  <si>
+    <t>galichaitanya20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
+  </si>
+  <si>
+    <t>Varnavi Nandkumar Patil</t>
+  </si>
+  <si>
+    <t>patilvarnavi20@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
+  </si>
+  <si>
+    <t>Rahul Santosh Vishe</t>
+  </si>
+  <si>
+    <t>vishe098@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
+  </si>
+  <si>
+    <t>VEDANT PRAKASH CHAVAN</t>
+  </si>
+  <si>
+    <t>vedantprakashchavan@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
   </si>
   <si>
     <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
   </si>
   <si>
-    <t>Aryan Dany Periyathra</t>
-  </si>
-  <si>
-    <t>aryan15dany@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0b5d2f64-6bf5-4145-a3e7-fdfb2899a79b</t>
-  </si>
-  <si>
-    <t>Princel Charleston Tixeira</t>
-  </si>
-  <si>
-    <t>gdgc224princelt@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2690221a-a2dc-40b9-96ee-fd14894d4842</t>
-  </si>
-  <si>
-    <t>Sanket Pratap Jadhav</t>
-  </si>
-  <si>
-    <t>sanketpj98@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2ab8ed6b-2ce8-4edd-8120-d85e0e2c60c1</t>
-  </si>
-  <si>
-    <t>Irene Sebastian Illikal</t>
-  </si>
-  <si>
-    <t>irene.sid@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/97865bc5-d478-4524-81cb-03bbfbea83f6</t>
-  </si>
-  <si>
-    <t>Shaikh Mohommad Shahid</t>
-  </si>
-  <si>
-    <t>zzzzsnap215@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca9b46dc-3b87-462b-9d69-8cb87c4d64f9</t>
-  </si>
-  <si>
-    <t>Atharva Vinod Ghag</t>
-  </si>
-  <si>
-    <t>atharvaghag800@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a164fea6-c425-4661-a960-1840788448b1</t>
-  </si>
-  <si>
-    <t>Keshav Kuldip Prajapati</t>
-  </si>
-  <si>
-    <t>prajapatikeshav497@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/be2c4bee-6666-4ee2-a411-3785ccf04d38</t>
-  </si>
-  <si>
-    <t>Aneesh Mhasawade</t>
-  </si>
-  <si>
-    <t>onisop300@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/762f5a34-e590-48c3-91ff-dc96b75248e4</t>
-  </si>
-  <si>
-    <t>Prathmesh Manoj Sawant</t>
-  </si>
-  <si>
-    <t>prathmeshgdgc@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/24422e34-1994-44d1-9f37-e8850392abae</t>
-  </si>
-  <si>
-    <t>Krushnali Dinesh Mungekar</t>
-  </si>
-  <si>
-    <t>mungekarkrushnali7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/cd4bc359-07ac-493a-a925-2751cb22eff1</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Madhura Sunil Kedar</t>
-  </si>
-  <si>
-    <t>madhurakedar442@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/839d72c1-063a-4420-94d4-463604e75d5c</t>
-  </si>
-  <si>
-    <t>Sameer Vishwanath Mhapsekar</t>
-  </si>
-  <si>
-    <t>sameermhapsekar12@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/398a26a2-3f65-4c64-96e6-cdde6ced912f</t>
-  </si>
-  <si>
-    <t>Bharthi Annapandi</t>
-  </si>
-  <si>
-    <t>bharthiannapandi@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/01b0e076-0992-449d-9856-013c52db7f7e</t>
-  </si>
-  <si>
-    <t>Shubham S Mahajani</t>
-  </si>
-  <si>
-    <t>mahajanishubham19@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b732a02-4cf1-410a-b752-5851c430bffc</t>
-  </si>
-  <si>
-    <t>Prashant Ashok Ghuge</t>
-  </si>
-  <si>
-    <t>ghugeprashant44@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c31955fc-0913-402d-b545-d8772a166ae5</t>
-  </si>
-  <si>
-    <t>Daniel Fernandes</t>
-  </si>
-  <si>
-    <t>danieldinos456@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/95d9c2c5-3eab-4abc-b311-de691e4b8585</t>
-  </si>
-  <si>
-    <t>Kate Dsouza</t>
-  </si>
-  <si>
-    <t>28katedsouza@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ca21cdc6-74ab-4313-8c0c-e1919195eed8</t>
-  </si>
-  <si>
-    <t>Mahie Jeetendra Jain</t>
-  </si>
-  <si>
-    <t>jainmahie@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/442aa6c3-1868-464f-a8c4-835c3f750e7a</t>
-  </si>
-  <si>
-    <t>Tanvi Rupesh Patil</t>
-  </si>
-  <si>
-    <t>tanvirupesh7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/246e6870-277f-4d3b-9864-b8e86db38ef2</t>
-  </si>
-  <si>
-    <t>Prathamesh Dinesh Kurdekar</t>
-  </si>
-  <si>
-    <t>prathamesh140605@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/59541613-4e07-470a-9afe-7d00bbcc48f2</t>
-  </si>
-  <si>
-    <t>Alysha Dsouza</t>
-  </si>
-  <si>
-    <t>dsouza.alysha07@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/6547230c-5b82-4e1b-a2a0-52d4278cb1c7</t>
-  </si>
-  <si>
-    <t>Vimla Choudhary</t>
-  </si>
-  <si>
-    <t>vimlachoudhary2612@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c9bab1b5-8194-437a-ae88-4e1ab53bae51</t>
-  </si>
-  <si>
-    <t>Neha Haldankar</t>
-  </si>
-  <si>
-    <t>mitsuriii888@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9e8fc52a-c63f-4c56-95bb-faf2c7ffcd64</t>
-  </si>
-  <si>
-    <t>Saurav Ghodke</t>
-  </si>
-  <si>
-    <t>ghodkek606@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/e6d84241-6d82-4f18-b09c-63f5abb764b2</t>
-  </si>
-  <si>
-    <t>Sebastian Karia</t>
-  </si>
-  <si>
-    <t>sebastiankaria36@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8ec9d598-6151-4e09-8476-6c5a10183646</t>
-  </si>
-  <si>
-    <t>Samruddhi Patil</t>
-  </si>
-  <si>
-    <t>patilmanasvi0101@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/7db37e27-a869-42e6-ac38-88ef3421a4d0</t>
-  </si>
-  <si>
-    <t>Get Started with Pub/Sub [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Mayur Gardaswar</t>
-  </si>
-  <si>
-    <t>gardaswarmayur08@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/dc1e4097-295c-4689-9ed6-4febb0dd72f1</t>
-  </si>
-  <si>
-    <t>Het Pravin Visariya</t>
-  </si>
-  <si>
-    <t>hetvisariya06@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0694ea53-f218-4994-b50b-8192b45cc4f5</t>
-  </si>
-  <si>
-    <t>Soham Rahatwal</t>
-  </si>
-  <si>
-    <t>sohamrahatwal15@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/8532ed65-6859-4ba1-a444-0739ce307fac</t>
-  </si>
-  <si>
-    <t>Samuel Pereira</t>
-  </si>
-  <si>
-    <t>pereirasamuelsp20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c147d676-64e8-47a4-a80a-fca9ca0e5a1c</t>
-  </si>
-  <si>
-    <t>Shikha jhawar</t>
-  </si>
-  <si>
-    <t>jhawarshikha18@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f9538340-7556-410f-ac7e-92aa61b4f549</t>
-  </si>
-  <si>
-    <t>Varad Khadilkar</t>
-  </si>
-  <si>
-    <t>khadilkarvarad@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/17118170-743d-4f81-b021-054b85eb6cc8</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Atharv Prakash Yadav</t>
-  </si>
-  <si>
-    <t>atharvyadav1720@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b1151d83-d545-4f2a-acc2-bd6bbe289ea9</t>
-  </si>
-  <si>
-    <t>Ritesh Kode</t>
-  </si>
-  <si>
-    <t>riteshkode547@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fa4028e-13b1-4857-981d-7f456aae52d2</t>
-  </si>
-  <si>
-    <t>Amey Kiran Badgujar</t>
-  </si>
-  <si>
-    <t>ameykiranbadgujar@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/19bdfbc7-88e0-47d3-a38e-2cac4b765a1f</t>
-  </si>
-  <si>
-    <t>Shelly Benny Vadakkan</t>
-  </si>
-  <si>
-    <t>shellybenny21@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f02a2a9c-548c-4da5-8342-1680f78cb13c</t>
-  </si>
-  <si>
-    <t>Tejas Santosh Bhosale</t>
-  </si>
-  <si>
-    <t>tejasbhosale568@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/ffe47709-e2b4-4c83-963b-53b371f302c9</t>
-  </si>
-  <si>
-    <t>Soniya Ryan Xavier</t>
-  </si>
-  <si>
-    <t>soniyarxavier@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/089b93c1-30d0-4744-89c1-0e9208df931f</t>
-  </si>
-  <si>
-    <t>Anushka Sonawane</t>
-  </si>
-  <si>
-    <t>amson2505@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f1c82ab8-ce37-49a5-875d-c3fc87579c39</t>
-  </si>
-  <si>
-    <t>Dhruvin Hitesh Chudasama</t>
-  </si>
-  <si>
-    <t>hiteshchudasama0271@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bebb96bb-31b7-4016-8a9a-516db683a7d3</t>
-  </si>
-  <si>
-    <t>Atharva jahagirdar</t>
-  </si>
-  <si>
-    <t>Heheatha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b275daf9-cf93-4ff2-9e1f-7d20949b94f0</t>
-  </si>
-  <si>
-    <t>mrudula sonawane</t>
-  </si>
-  <si>
-    <t>323mrudula0023@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/12842386-7e79-442f-abc9-2d442c4539e5</t>
-  </si>
-  <si>
-    <t>Shubham Gharat</t>
-  </si>
-  <si>
-    <t>sandygharat1975@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/a2ef1dc8-0896-443b-8063-11f5c9969f66</t>
-  </si>
-  <si>
-    <t>Vidisha Mankar</t>
-  </si>
-  <si>
-    <t>vida282006@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/123a8cef-e1c6-4346-b61f-7c34c0bc6fd9</t>
-  </si>
-  <si>
-    <t>Aayush Nikhare</t>
-  </si>
-  <si>
-    <t>aayushnikhare30@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/f52ec6c7-9ef5-4f34-8bfc-e00117fdf39a</t>
-  </si>
-  <si>
-    <t>Ryan Dsouza</t>
-  </si>
-  <si>
-    <t>ryandsouza0012@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/db69b167-9c87-4b4b-b097-4f94759c9441</t>
-  </si>
-  <si>
-    <t>Bhumika Patil</t>
-  </si>
-  <si>
-    <t>bhu.patil216@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/2b7ed0f2-afc9-4923-91a1-5ee0587f9d69</t>
-  </si>
-  <si>
-    <t>Ojal Kundan Ramteke</t>
-  </si>
-  <si>
-    <t>ojalkramteke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3d66610d-4b46-462a-ae6c-a9a8db7fe40f</t>
-  </si>
-  <si>
-    <t>Anay Deshpande</t>
-  </si>
-  <si>
-    <t>danay5867@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bad3ff67-0d3b-46ed-b158-7f60d9009eb7</t>
-  </si>
-  <si>
-    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Dataplex [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge]</t>
-  </si>
-  <si>
-    <t>Ketan Suresh Shelke</t>
-  </si>
-  <si>
-    <t>ketan.sureshshelke@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/9552502c-b6f9-4308-9fcd-1c8350158879</t>
-  </si>
-  <si>
-    <t>Aditya Ashok Patil</t>
-  </si>
-  <si>
-    <t>patiladitya1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/61146299-715b-456e-a520-acd7acb11908</t>
-  </si>
-  <si>
-    <t>Rishik Sudheer Ezhuthachan</t>
-  </si>
-  <si>
-    <t>rishiks2508@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c546f0c0-bf16-45c3-bb4d-1d92fc351adf</t>
-  </si>
-  <si>
-    <t>Atharva Yogesh Shimpi</t>
-  </si>
-  <si>
-    <t>atharva230407@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0acd3ce6-3895-429f-b0c7-a40f63ac24a4</t>
-  </si>
-  <si>
-    <t>Chaudhari Chetan Kishor</t>
-  </si>
-  <si>
-    <t>chetanchaudhari1729@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/576a7728-6c4d-4180-aa39-2773077f2c4e</t>
-  </si>
-  <si>
-    <t>Ameya Gadre</t>
-  </si>
-  <si>
-    <t>iknowright068@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c1c9c3fd-294e-4990-ba38-e90c953bf760</t>
-  </si>
-  <si>
-    <t>Shrushti Pandurang Benke</t>
-  </si>
-  <si>
-    <t>shrushti.career@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0ca2131a-68f4-4dc5-8b8a-78e44dfb54cb</t>
-  </si>
-  <si>
-    <t>Newton DÃÂ¢Ã¢ÂÂ¬Ã¢ÂÂ¢Souza</t>
-  </si>
-  <si>
-    <t>newtondsouza1402@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/c41ad3b8-2216-4a2c-949d-83aa12954f30</t>
-  </si>
-  <si>
-    <t>Kaustubh Deshmane</t>
-  </si>
-  <si>
-    <t>kddummy345@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/41d6323b-ff9f-49a0-be1a-700c27ec1e29</t>
-  </si>
-  <si>
-    <t>Joshua Almeida</t>
-  </si>
-  <si>
-    <t>joshuaalmeida003@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/0fbe54c6-828f-477c-8e80-8b82fefedf12</t>
-  </si>
-  <si>
-    <t>Ayush Arun Sawant</t>
-  </si>
-  <si>
-    <t>spotifypremiumuse438@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/b577a2ab-b921-44f8-995f-c40a8aff9ca4</t>
-  </si>
-  <si>
-    <t>Piyush Mistry</t>
-  </si>
-  <si>
-    <t>mistrypiyush1234@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/4b7c3dd2-9a10-42cd-b234-da90840cc09e</t>
-  </si>
-  <si>
-    <t>Samara Nazareth</t>
-  </si>
-  <si>
-    <t>samaraclarenazareth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/fcaefd5b-afca-468c-859c-b198d9c19c9c</t>
-  </si>
-  <si>
-    <t>Chaitanya gali</t>
-  </si>
-  <si>
-    <t>galichaitanya20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/07a600d1-b632-4f2c-b99e-376c8c1dcabb</t>
-  </si>
-  <si>
-    <t>Varnavi Nandkumar Patil</t>
-  </si>
-  <si>
-    <t>patilvarnavi20@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/3f738a6d-4813-494b-a0a1-cfef3dac08bd</t>
-  </si>
-  <si>
-    <t>Rahul Santosh Vishe</t>
-  </si>
-  <si>
-    <t>vishe098@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/82450c4b-7ee9-4411-8366-34f246c874b0</t>
-  </si>
-  <si>
-    <t>VEDANT PRAKASH CHAVAN</t>
-  </si>
-  <si>
-    <t>vedantprakashchavan@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.cloudskillsboost.google/public_profiles/bf2445a9-9488-43f7-b5ca-c3cdbb802e7a</t>
-  </si>
-  <si>
     <t>Keshav Prajapati</t>
   </si>
   <si>
@@ -1621,6 +1654,9 @@
     <t>https://www.cloudskillsboost.google/public_profiles/4f2ddca9-bd68-432f-8c86-3f8042e91c24</t>
   </si>
   <si>
+    <t>Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge]</t>
+  </si>
+  <si>
     <t>Prasad Subhedar</t>
   </si>
   <si>
@@ -1919,6 +1955,9 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/bce40b83-d010-4bac-ab1f-475ffbec284f</t>
+  </si>
+  <si>
+    <t>The Basics of Google Cloud Compute [Skill Badge] | Get Started with Cloud Storage [Skill Badge] | Get Started with Pub/Sub [Skill Badge] | Get Started with API Gateway [Skill Badge] | Get Started with Looker [Skill Badge] | Get Started with Dataplex [Skill Badge] | Get Started with Google Workspace Tools [Skill Badge] | App Building with AppSheet [Skill Badge] | Develop with Apps Script and AppSheet [Skill Badge] | Build a Website on Google Cloud [Skill Badge] | Set Up a Google Cloud Network [Skill Badge] | Cloud Run Functions: 3 Ways [Skill Badge] | App Engine: 3 Ways [Skill Badge] | Cloud Speech API: 3 Ways [Skill Badge] | Monitoring in Google Cloud [Skill Badge] | Prompt Design in Vertex AI [Skill Badge] | Develop Gen AI Apps with Gemini and Streamlit [Skill Badge]</t>
   </si>
   <si>
     <t>Crystal Dsouza</t>
@@ -2524,7 +2563,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2560,8 +2599,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>711</v>
+      <c r="L1" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -2639,7 +2678,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -2647,13 +2689,13 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -2665,10 +2707,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -2676,13 +2718,13 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
@@ -2694,10 +2736,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -2705,13 +2747,13 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -2726,7 +2768,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2734,13 +2776,13 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -2752,27 +2794,27 @@
         <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -2787,7 +2829,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2795,13 +2837,13 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
@@ -2813,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2824,28 +2866,28 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -2853,13 +2895,13 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -2879,13 +2921,13 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2897,27 +2939,27 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -2926,30 +2968,30 @@
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2964,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -2972,13 +3014,13 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -2990,10 +3032,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -3001,13 +3043,13 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -3019,10 +3061,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -3030,13 +3072,13 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -3048,7 +3090,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -3056,13 +3101,13 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
@@ -3071,30 +3116,30 @@
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -3114,13 +3159,13 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -3140,13 +3185,13 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -3161,21 +3206,21 @@
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -3193,15 +3238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -3213,21 +3258,24 @@
         <v>15</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -3239,21 +3287,24 @@
         <v>15</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -3265,56 +3316,56 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1">
-        <v>5</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -3329,21 +3380,21 @@
         <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -3355,24 +3406,27 @@
         <v>15</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -3384,24 +3438,24 @@
         <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -3416,21 +3470,21 @@
         <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -3445,24 +3499,24 @@
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -3477,21 +3531,21 @@
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -3503,24 +3557,24 @@
         <v>15</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
@@ -3535,21 +3589,21 @@
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -3569,13 +3623,13 @@
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -3587,10 +3641,10 @@
         <v>15</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -3598,13 +3652,13 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -3624,13 +3678,13 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -3642,7 +3696,10 @@
         <v>15</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -3650,13 +3707,13 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -3676,13 +3733,13 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -3702,13 +3759,13 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -3717,30 +3774,30 @@
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -3760,13 +3817,13 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3778,24 +3835,27 @@
         <v>15</v>
       </c>
       <c r="G44" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -3815,13 +3875,13 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -3836,13 +3896,13 @@
         <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -3850,13 +3910,13 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -3868,7 +3928,10 @@
         <v>15</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -3876,13 +3939,13 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -3897,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -3905,13 +3968,13 @@
     </row>
     <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3926,7 +3989,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -3934,13 +3997,13 @@
     </row>
     <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -3952,27 +4015,27 @@
         <v>15</v>
       </c>
       <c r="G50" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -3992,13 +4055,13 @@
     </row>
     <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -4013,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -4021,13 +4084,13 @@
     </row>
     <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>13</v>
@@ -4039,10 +4102,10 @@
         <v>15</v>
       </c>
       <c r="G53" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -4050,13 +4113,13 @@
     </row>
     <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
@@ -4071,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -4079,13 +4142,13 @@
     </row>
     <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>13</v>
@@ -4100,7 +4163,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -4108,13 +4171,13 @@
     </row>
     <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -4126,7 +4189,10 @@
         <v>15</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -4134,13 +4200,13 @@
     </row>
     <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -4155,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4163,13 +4229,13 @@
     </row>
     <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -4178,30 +4244,30 @@
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -4221,25 +4287,28 @@
     </row>
     <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4247,13 +4316,13 @@
     </row>
     <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -4268,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -4276,13 +4345,13 @@
     </row>
     <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -4302,13 +4371,13 @@
     </row>
     <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -4328,13 +4397,13 @@
     </row>
     <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -4354,13 +4423,13 @@
     </row>
     <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -4380,13 +4449,13 @@
     </row>
     <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -4406,13 +4475,13 @@
     </row>
     <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -4432,13 +4501,13 @@
     </row>
     <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -4458,13 +4527,13 @@
     </row>
     <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -4484,13 +4553,13 @@
     </row>
     <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -4502,10 +4571,10 @@
         <v>15</v>
       </c>
       <c r="G70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -4513,13 +4582,13 @@
     </row>
     <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -4539,13 +4608,13 @@
     </row>
     <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -4565,13 +4634,13 @@
     </row>
     <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -4583,10 +4652,10 @@
         <v>15</v>
       </c>
       <c r="G73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
@@ -4594,13 +4663,13 @@
     </row>
     <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
@@ -4615,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
@@ -4623,13 +4692,13 @@
     </row>
     <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
@@ -4641,10 +4710,10 @@
         <v>15</v>
       </c>
       <c r="G75" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
@@ -4652,13 +4721,13 @@
     </row>
     <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
@@ -4678,13 +4747,13 @@
     </row>
     <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>13</v>
@@ -4702,18 +4771,18 @@
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -4733,13 +4802,13 @@
     </row>
     <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
@@ -4759,13 +4828,13 @@
     </row>
     <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>13</v>
@@ -4777,7 +4846,10 @@
         <v>15</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -4785,13 +4857,13 @@
     </row>
     <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
@@ -4811,13 +4883,13 @@
     </row>
     <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>13</v>
@@ -4837,13 +4909,13 @@
     </row>
     <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>13</v>
@@ -4861,18 +4933,18 @@
         <v>1</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>13</v>
@@ -4887,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
@@ -4895,13 +4967,13 @@
     </row>
     <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>13</v>
@@ -4921,13 +4993,13 @@
     </row>
     <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
@@ -4947,13 +5019,13 @@
     </row>
     <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>13</v>
@@ -4973,13 +5045,13 @@
     </row>
     <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
@@ -4999,13 +5071,13 @@
     </row>
     <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
@@ -5014,30 +5086,30 @@
         <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>13</v>
@@ -5057,13 +5129,13 @@
     </row>
     <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>13</v>
@@ -5075,10 +5147,10 @@
         <v>15</v>
       </c>
       <c r="G91" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -5086,13 +5158,13 @@
     </row>
     <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>13</v>
@@ -5104,24 +5176,27 @@
         <v>15</v>
       </c>
       <c r="G92" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>13</v>
@@ -5141,13 +5216,13 @@
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>13</v>
@@ -5167,13 +5242,13 @@
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -5193,13 +5268,13 @@
     </row>
     <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -5219,13 +5294,13 @@
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
@@ -5245,13 +5320,13 @@
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -5263,10 +5338,10 @@
         <v>15</v>
       </c>
       <c r="G98" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
@@ -5274,13 +5349,13 @@
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -5295,7 +5370,7 @@
         <v>7</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -5303,13 +5378,13 @@
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -5324,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -5332,13 +5407,13 @@
     </row>
     <row r="101" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -5358,13 +5433,13 @@
     </row>
     <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -5376,7 +5451,10 @@
         <v>15</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -5384,13 +5462,13 @@
     </row>
     <row r="103" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -5410,13 +5488,13 @@
     </row>
     <row r="104" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -5431,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -5439,13 +5517,13 @@
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -5465,13 +5543,13 @@
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -5491,13 +5569,13 @@
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -5517,13 +5595,13 @@
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -5543,13 +5621,13 @@
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -5569,13 +5647,13 @@
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -5590,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -5598,13 +5676,13 @@
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -5619,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -5627,13 +5705,13 @@
     </row>
     <row r="112" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -5653,13 +5731,13 @@
     </row>
     <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -5679,13 +5757,13 @@
     </row>
     <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>13</v>
@@ -5705,13 +5783,13 @@
     </row>
     <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>13</v>
@@ -5723,10 +5801,10 @@
         <v>15</v>
       </c>
       <c r="G115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -5734,13 +5812,13 @@
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>13</v>
@@ -5755,7 +5833,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -5763,13 +5841,13 @@
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>13</v>
@@ -5781,24 +5859,27 @@
         <v>15</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>13</v>
@@ -5818,13 +5899,13 @@
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>13</v>
@@ -5839,7 +5920,7 @@
         <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -5847,13 +5928,13 @@
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>13</v>
@@ -5873,13 +5954,13 @@
     </row>
     <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>13</v>
@@ -5891,10 +5972,10 @@
         <v>15</v>
       </c>
       <c r="G121" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -5902,13 +5983,13 @@
     </row>
     <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>13</v>
@@ -5923,7 +6004,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -5931,13 +6012,13 @@
     </row>
     <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>13</v>
@@ -5957,13 +6038,13 @@
     </row>
     <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>13</v>
@@ -5983,13 +6064,13 @@
     </row>
     <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>13</v>
@@ -6009,13 +6090,13 @@
     </row>
     <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>13</v>
@@ -6035,13 +6116,13 @@
     </row>
     <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>13</v>
@@ -6061,13 +6142,13 @@
     </row>
     <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
@@ -6087,13 +6168,13 @@
     </row>
     <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>13</v>
@@ -6113,13 +6194,13 @@
     </row>
     <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -6139,13 +6220,13 @@
     </row>
     <row r="131" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>13</v>
@@ -6165,13 +6246,13 @@
     </row>
     <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>13</v>
@@ -6191,13 +6272,13 @@
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>13</v>
@@ -6209,7 +6290,10 @@
         <v>15</v>
       </c>
       <c r="G133" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="I133" s="1">
         <v>0</v>
@@ -6217,13 +6301,13 @@
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>13</v>
@@ -6243,13 +6327,13 @@
     </row>
     <row r="135" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>13</v>
@@ -6261,10 +6345,10 @@
         <v>15</v>
       </c>
       <c r="G135" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="I135" s="1">
         <v>0</v>
@@ -6272,13 +6356,13 @@
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
@@ -6293,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="I136" s="1">
         <v>0</v>
@@ -6301,13 +6385,13 @@
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>13</v>
@@ -6327,13 +6411,13 @@
     </row>
     <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>13</v>
@@ -6345,10 +6429,10 @@
         <v>15</v>
       </c>
       <c r="G138" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="I138" s="1">
         <v>0</v>
@@ -6356,13 +6440,13 @@
     </row>
     <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>13</v>
@@ -6382,13 +6466,13 @@
     </row>
     <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>13</v>
@@ -6408,13 +6492,13 @@
     </row>
     <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>13</v>
@@ -6429,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="I141" s="1">
         <v>0</v>
@@ -6437,13 +6521,13 @@
     </row>
     <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>13</v>
@@ -6455,7 +6539,10 @@
         <v>15</v>
       </c>
       <c r="G142" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I142" s="1">
         <v>0</v>
@@ -6463,13 +6550,13 @@
     </row>
     <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>13</v>
@@ -6489,13 +6576,13 @@
     </row>
     <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>13</v>
@@ -6515,13 +6602,13 @@
     </row>
     <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>13</v>
@@ -6533,27 +6620,27 @@
         <v>15</v>
       </c>
       <c r="G145" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>128</v>
+        <v>482</v>
       </c>
       <c r="I145" s="1">
         <v>1</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>13</v>
@@ -6573,13 +6660,13 @@
     </row>
     <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>13</v>
@@ -6594,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -6602,13 +6689,13 @@
     </row>
     <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>13</v>
@@ -6628,13 +6715,13 @@
     </row>
     <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>13</v>
@@ -6654,13 +6741,13 @@
     </row>
     <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>13</v>
@@ -6680,13 +6767,13 @@
     </row>
     <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>13</v>
@@ -6706,13 +6793,13 @@
     </row>
     <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>13</v>
@@ -6732,13 +6819,13 @@
     </row>
     <row r="153" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>13</v>
@@ -6758,13 +6845,13 @@
     </row>
     <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>13</v>
@@ -6784,13 +6871,13 @@
     </row>
     <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>13</v>
@@ -6802,24 +6889,27 @@
         <v>15</v>
       </c>
       <c r="G155" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>128</v>
+        <v>513</v>
       </c>
       <c r="I155" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>13</v>
@@ -6839,13 +6929,13 @@
     </row>
     <row r="157" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>13</v>
@@ -6865,13 +6955,13 @@
     </row>
     <row r="158" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>13</v>
@@ -6883,7 +6973,10 @@
         <v>15</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="I158" s="1">
         <v>0</v>
@@ -6891,13 +6984,13 @@
     </row>
     <row r="159" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>13</v>
@@ -6917,13 +7010,13 @@
     </row>
     <row r="160" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>13</v>
@@ -6941,15 +7034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>13</v>
@@ -6967,15 +7060,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>13</v>
@@ -6987,53 +7080,53 @@
         <v>15</v>
       </c>
       <c r="G162" s="1">
+        <v>9</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="1">
         <v>5</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I162" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" s="1">
-        <v>4</v>
-      </c>
       <c r="H163" s="1" t="s">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="I163" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>13</v>
@@ -7051,15 +7144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>13</v>
@@ -7071,24 +7164,24 @@
         <v>15</v>
       </c>
       <c r="G165" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>56</v>
+        <v>544</v>
       </c>
       <c r="I165" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>13</v>
@@ -7106,15 +7199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>13</v>
@@ -7132,15 +7225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>13</v>
@@ -7152,50 +7245,56 @@
         <v>15</v>
       </c>
       <c r="G168" s="1">
+        <v>5</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="1">
+        <v>2</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I169" s="1">
         <v>1</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="1">
-        <v>0</v>
-      </c>
-      <c r="I169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J169" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>13</v>
@@ -7213,15 +7312,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>13</v>
@@ -7239,15 +7338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>13</v>
@@ -7265,15 +7364,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>13</v>
@@ -7291,15 +7390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>13</v>
@@ -7317,15 +7416,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>13</v>
@@ -7340,21 +7439,21 @@
         <v>1</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>13</v>
@@ -7374,13 +7473,13 @@
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>13</v>
@@ -7400,13 +7499,13 @@
     </row>
     <row r="178" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>13</v>
@@ -7426,13 +7525,13 @@
     </row>
     <row r="179" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>13</v>
@@ -7452,13 +7551,13 @@
     </row>
     <row r="180" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>13</v>
@@ -7478,13 +7577,13 @@
     </row>
     <row r="181" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>13</v>
@@ -7504,13 +7603,13 @@
     </row>
     <row r="182" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>13</v>
@@ -7530,13 +7629,13 @@
     </row>
     <row r="183" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>13</v>
@@ -7548,7 +7647,10 @@
         <v>15</v>
       </c>
       <c r="G183" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I183" s="1">
         <v>0</v>
@@ -7556,13 +7658,13 @@
     </row>
     <row r="184" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>13</v>
@@ -7582,13 +7684,13 @@
     </row>
     <row r="185" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>13</v>
@@ -7608,13 +7710,13 @@
     </row>
     <row r="186" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>13</v>
@@ -7634,13 +7736,13 @@
     </row>
     <row r="187" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>13</v>
@@ -7660,13 +7762,13 @@
     </row>
     <row r="188" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>13</v>
@@ -7686,13 +7788,13 @@
     </row>
     <row r="189" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>13</v>
@@ -7712,13 +7814,13 @@
     </row>
     <row r="190" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>13</v>
@@ -7733,7 +7835,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I190" s="1">
         <v>0</v>
@@ -7741,13 +7843,13 @@
     </row>
     <row r="191" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>13</v>
@@ -7767,19 +7869,19 @@
     </row>
     <row r="192" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>15</v>
@@ -7791,15 +7893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>13</v>
@@ -7817,15 +7919,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>13</v>
@@ -7843,15 +7945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>13</v>
@@ -7869,15 +7971,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>13</v>
@@ -7895,15 +7997,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>13</v>
@@ -7921,15 +8023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>13</v>
@@ -7947,15 +8049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>13</v>
@@ -7964,27 +8066,30 @@
         <v>14</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G199" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>34</v>
+        <v>645</v>
       </c>
       <c r="I199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>13</v>
@@ -8002,15 +8107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>13</v>
@@ -8028,15 +8133,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>13</v>
@@ -8054,15 +8159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>13</v>
@@ -8080,15 +8185,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>13</v>
@@ -8106,15 +8211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
@@ -8132,15 +8237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>13</v>
@@ -8158,15 +8263,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>13</v>
@@ -8184,21 +8289,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>15</v>
@@ -8210,15 +8315,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>13</v>
@@ -8236,15 +8341,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>13</v>
@@ -8262,15 +8367,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>13</v>
@@ -8288,15 +8393,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>13</v>
@@ -8308,21 +8413,24 @@
         <v>15</v>
       </c>
       <c r="G212" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="I212" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>13</v>
@@ -8340,15 +8448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>13</v>
@@ -8366,15 +8474,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>13</v>
@@ -8392,15 +8500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>13</v>
@@ -8418,15 +8526,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>13</v>
@@ -8444,15 +8552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>13</v>
@@ -8470,15 +8578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>13</v>
@@ -8496,15 +8604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>13</v>
@@ -8522,15 +8630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>13</v>
@@ -8548,15 +8656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>13</v>
@@ -8574,15 +8682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>13</v>
@@ -8600,15 +8708,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>13</v>
@@ -8620,21 +8728,27 @@
         <v>15</v>
       </c>
       <c r="G224" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I224" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
